--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\timeList\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF314D1-7D88-4B95-A6F5-4355D7B3BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00063BA5-462A-4C8E-AEC4-1DE2ED3BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3375" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27375" yWindow="4740" windowWidth="23445" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
+    <sheet name="S1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="367">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1141,6 +1142,62 @@
   </si>
   <si>
     <t>06-11 例行維護中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>05-11 例行維護</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05-10 定期メンテナンス中</t>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト用</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>測試用 假的</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>測試用 假的測試用 假的</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト用テスト用テスト用テスト用</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1327,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,11 +1639,28 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1890,7 +1964,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4158,6 +4234,5746 @@
         <v>74</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>05:00</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="1"/>
+        <v>05:00</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="2"/>
+        <v>05:00</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>06:00</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="1"/>
+        <v>06:00</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="2"/>
+        <v>06:00</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>07:00</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="1"/>
+        <v>07:00</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="2"/>
+        <v>07:00</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="0"/>
+        <v>08:00</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="1"/>
+        <v>08:00</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="2"/>
+        <v>08:00</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="0"/>
+        <v>09:00</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="1"/>
+        <v>09:00</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="2"/>
+        <v>09:00</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v>10:00</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="1"/>
+        <v>10:00</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="2"/>
+        <v>10:00</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F61" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I61" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="0"/>
+        <v>11:21</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="1"/>
+        <v>11:21</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="2"/>
+        <v>11:21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="3">IF($B67&lt;&gt;"",TEXT($B67,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="4">IF($E67&lt;&gt;"",TEXT($E67,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O130" si="5">IF($H67&lt;&gt;"",TEXT($H67,"HH:MM"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A73" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="64"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="62"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A97" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="70"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
+      <c r="K97" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="67"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="36"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="37"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" s="37"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" s="36"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="36"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="37"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" s="36"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="36"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="36"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="37"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="36"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="36"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="37"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="36"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="36"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="37"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" s="36"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="36"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" s="37"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A121" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="76"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" s="73"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N122" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="42"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O123" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="41"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="41"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="42"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" s="44"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" s="41"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="41"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="42"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="41"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M169" si="6">IF($B131&lt;&gt;"",TEXT($B131,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N169" si="7">IF($E131&lt;&gt;"",TEXT($E131,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="O131" t="str">
+        <f t="shared" ref="O131:O169" si="8">IF($H131&lt;&gt;"",TEXT($H131,"HH:MM"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="41"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O132" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="42"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="41"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" s="41"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="42"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="41"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="41"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="41"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" s="42"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="40"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="41"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="41"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="42"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A145" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="83"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="80"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="79"/>
+      <c r="J146" s="79"/>
+      <c r="K146" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="31"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="32"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="32"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="32"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="32"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="32"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="32"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="32"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="32"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="31"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N157" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="31"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N158" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="31"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N159" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="32"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N160" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="32"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N161" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N162" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="32"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="32"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N164" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="32"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N165" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O165" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="32"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N166" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="31"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N167" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="31"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N168" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="32"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N169" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A1:K1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="定期メンテナンス中">
+      <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:J1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="例行維護中">
+      <formula>NOT(ISERROR(SEARCH("例行維護中",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
+  <dimension ref="A1:O169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF($B2&lt;&gt;"",TEXT($B2,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF($E2&lt;&gt;"",TEXT($E2,"HH:MM"),"")</f>
+        <v>00:00</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF($H2&lt;&gt;"",TEXT($H2,"HH:MM"),"")</f>
+        <v>00:00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="0">IF($B3&lt;&gt;"",TEXT($B3,"HH:MM"),"")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="1">IF($E3&lt;&gt;"",TEXT($E3,"HH:MM"),"")</f>
+        <v>01:31</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="2">IF($H3&lt;&gt;"",TEXT($H3,"HH:MM"),"")</f>
+        <v>01:22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>02:54</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>02:54</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="2"/>
+        <v>02:37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>03:00</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>03:55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>04:17</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>05:30</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>05:11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>06:41</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
+        <v>06:30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>07:06</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>07:49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>08:49</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
+        <v>09:13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>10:17</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>10:04</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v>10:36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>11:42</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>12:09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>13:03</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>13:17</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>13:43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>14:38</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>15:26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>16:11</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>16:18</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>17:58</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v>17:09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v>18:39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>19:59</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>19:42</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v>20:08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>21:08</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="2"/>
+        <v>21:49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>22:42</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>22:28</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A25" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>23:54</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>23:05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>00:00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>01:10</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>01:16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>02:48</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>02:43</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>02:39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>04:05</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>04:18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>05:20</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>05:28</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>05:57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v>07:08</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="2"/>
+        <v>07:22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>08:51</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v>08:42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>09:36</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>10:09</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v>10:16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>11:36</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v>11:42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>12:38</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>13:05</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="2"/>
+        <v>13:20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>14:37</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v>14:38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="2"/>
+        <v>15:56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>16:05</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>16:14</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>17:34</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="2"/>
+        <v>17:34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>18:37</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>19:00</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="2"/>
+        <v>19:05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
+        <v>20:40</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v>20:31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>21:34</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="2"/>
+        <v>21:49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
+        <v>22:21</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A49" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
+        <v>23:45</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="2"/>
+        <v>23:09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="2"/>
+        <v>00:00</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>01:56</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="1"/>
+        <v>01:11</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="2"/>
+        <v>01:36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="1"/>
+        <v>02:54</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="2"/>
+        <v>03:02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="1"/>
+        <v>04:18</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="2"/>
+        <v>04:30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="6" t="s">

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00063BA5-462A-4C8E-AEC4-1DE2ED3BA8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71EF2BB-9407-4015-A479-DF57C14D7F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27375" yWindow="4740" windowWidth="23445" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="362">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1172,32 +1172,6 @@
   </si>
   <si>
     <t>10:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト用</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>測試用 假的</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>測試用 假的測試用 假的</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト用テスト用テスト用テスト用</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1964,8 +1938,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2025,24 +1999,12 @@
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="23" t="s">
         <v>87</v>
       </c>
@@ -2052,11 +2014,11 @@
       </c>
       <c r="N2" t="str">
         <f>IF($E2&lt;&gt;"",TEXT($E2,"HH:MM"),"")</f>
-        <v>00:00</v>
+        <v/>
       </c>
       <c r="O2" t="str">
         <f>IF($H2&lt;&gt;"",TEXT($H2,"HH:MM"),"")</f>
-        <v>00:00</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2066,24 +2028,12 @@
       <c r="B3" s="15"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="23" t="s">
         <v>47</v>
       </c>
@@ -2093,87 +2043,55 @@
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="1">IF($E3&lt;&gt;"",TEXT($E3,"HH:MM"),"")</f>
-        <v>01:31</v>
+        <v/>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O66" si="2">IF($H3&lt;&gt;"",TEXT($H3,"HH:MM"),"")</f>
-        <v>01:22</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>02:54</v>
+        <v/>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>02:54</v>
+        <v/>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
-        <v>02:37</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="23" t="s">
         <v>43</v>
       </c>
@@ -2183,34 +2101,24 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>03:00</v>
+        <v/>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
-        <v>03:55</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="23" t="s">
@@ -2222,7 +2130,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
-        <v>04:17</v>
+        <v/>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -2233,29 +2141,15 @@
       <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="23" t="s">
         <v>41</v>
       </c>
@@ -2265,46 +2159,32 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
-        <v>05:30</v>
+        <v/>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
-        <v>05:11</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="23" t="s">
         <v>40</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>06:41</v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
@@ -2312,36 +2192,22 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="2"/>
-        <v>06:30</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B9" s="16"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="23" t="s">
         <v>39</v>
       </c>
@@ -2351,34 +2217,24 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>07:06</v>
+        <v/>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
-        <v>07:49</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="23" t="s">
@@ -2390,7 +2246,7 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v>08:49</v>
+        <v/>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="2"/>
@@ -2401,25 +2257,15 @@
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="23" t="s">
         <v>35</v>
       </c>
@@ -2433,77 +2279,49 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
-        <v>09:13</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>10:17</v>
+        <v/>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v>10:04</v>
+        <v/>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="2"/>
-        <v>10:36</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="23" t="s">
@@ -2515,7 +2333,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
-        <v>11:42</v>
+        <v/>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
@@ -2526,25 +2344,15 @@
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E14" s="16"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="23" t="s">
         <v>31</v>
       </c>
@@ -2558,77 +2366,49 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
-        <v>12:09</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="23" t="s">
         <v>30</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>13:03</v>
+        <v/>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
-        <v>13:17</v>
+        <v/>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>
-        <v>13:43</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="23" t="s">
@@ -2640,7 +2420,7 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
-        <v>14:38</v>
+        <v/>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="2"/>
@@ -2651,25 +2431,15 @@
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="23" t="s">
         <v>26</v>
       </c>
@@ -2683,34 +2453,20 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="2"/>
-        <v>15:26</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="23" t="s">
@@ -2718,11 +2474,11 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>16:11</v>
+        <v/>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
-        <v>16:18</v>
+        <v/>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="2"/>
@@ -2733,29 +2489,15 @@
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="23" t="s">
         <v>22</v>
       </c>
@@ -2765,36 +2507,26 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
-        <v>17:58</v>
+        <v/>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="2"/>
-        <v>17:09</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="23" t="s">
         <v>17</v>
       </c>
@@ -2808,34 +2540,20 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="2"/>
-        <v>18:39</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="23" t="s">
@@ -2843,11 +2561,11 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>19:59</v>
+        <v/>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
-        <v>19:42</v>
+        <v/>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="2"/>
@@ -2858,25 +2576,15 @@
       <c r="A22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="23" t="s">
         <v>13</v>
       </c>
@@ -2890,36 +2598,22 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" si="2"/>
-        <v>20:08</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>267</v>
-      </c>
+      <c r="B23" s="16"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="23" t="s">
         <v>9</v>
       </c>
@@ -2929,38 +2623,24 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
-        <v>21:08</v>
+        <v/>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="2"/>
-        <v>21:49</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>267</v>
-      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="23" t="s">
@@ -2968,11 +2648,11 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>22:42</v>
+        <v/>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
-        <v>22:28</v>
+        <v/>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="2"/>
@@ -2983,29 +2663,15 @@
       <c r="A25" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>267</v>
-      </c>
+      <c r="B25" s="51"/>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="53" t="s">
         <v>5</v>
       </c>
@@ -3015,36 +2681,26 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
-        <v>23:54</v>
+        <v/>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="2"/>
-        <v>23:05</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>267</v>
-      </c>
+      <c r="B26" s="48"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="48" t="s">
-        <v>267</v>
-      </c>
+      <c r="E26" s="48"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>10</v>
-      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="5" t="s">
         <v>48</v>
       </c>
@@ -3058,36 +2714,22 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="2"/>
-        <v>00:00</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="5" t="s">
         <v>47</v>
       </c>
@@ -3097,77 +2739,53 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
-        <v>01:10</v>
+        <v/>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="2"/>
-        <v>01:16</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>02:48</v>
+        <v/>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
-        <v>02:43</v>
+        <v/>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="2"/>
-        <v>02:39</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5" t="s">
@@ -3190,29 +2808,15 @@
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="5" t="s">
         <v>42</v>
       </c>
@@ -3222,77 +2826,53 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>04:05</v>
+        <v/>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="2"/>
-        <v>04:18</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>05:20</v>
+        <v/>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
-        <v>05:28</v>
+        <v/>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="2"/>
-        <v>05:57</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5" t="s">
@@ -3315,29 +2895,15 @@
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="5" t="s">
         <v>39</v>
       </c>
@@ -3347,40 +2913,26 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
-        <v>07:08</v>
+        <v/>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="2"/>
-        <v>07:22</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="5" t="s">
         <v>38</v>
       </c>
@@ -3390,34 +2942,24 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="1"/>
-        <v>08:51</v>
+        <v/>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="2"/>
-        <v>08:42</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="5" t="s">
@@ -3425,7 +2967,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
-        <v>09:36</v>
+        <v/>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
@@ -3440,29 +2982,15 @@
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="5" t="s">
         <v>34</v>
       </c>
@@ -3472,40 +3000,26 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="1"/>
-        <v>10:09</v>
+        <v/>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="2"/>
-        <v>10:16</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="5" t="s">
         <v>32</v>
       </c>
@@ -3515,34 +3029,24 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="1"/>
-        <v>11:36</v>
+        <v/>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="2"/>
-        <v>11:42</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="H38" s="14"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="5" t="s">
@@ -3550,7 +3054,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
-        <v>12:38</v>
+        <v/>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="1"/>
@@ -3565,29 +3069,15 @@
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B39" s="12"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="5" t="s">
         <v>30</v>
       </c>
@@ -3597,40 +3087,26 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="1"/>
-        <v>13:05</v>
+        <v/>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="2"/>
-        <v>13:20</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B40" s="12"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="5" t="s">
         <v>29</v>
       </c>
@@ -3640,36 +3116,26 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
-        <v>14:37</v>
+        <v/>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="2"/>
-        <v>14:38</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B41" s="12"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="5" t="s">
         <v>26</v>
       </c>
@@ -3683,34 +3149,20 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="2"/>
-        <v>15:56</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="5" t="s">
@@ -3718,11 +3170,11 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
-        <v>16:05</v>
+        <v/>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
-        <v>16:14</v>
+        <v/>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="2"/>
@@ -3733,29 +3185,15 @@
       <c r="A43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B43" s="12"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="5" t="s">
         <v>22</v>
       </c>
@@ -3765,34 +3203,24 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
-        <v>17:34</v>
+        <v/>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="2"/>
-        <v>17:34</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="H44" s="14"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5" t="s">
@@ -3800,7 +3228,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
-        <v>18:37</v>
+        <v/>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="1"/>
@@ -3815,29 +3243,15 @@
       <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="5" t="s">
         <v>14</v>
       </c>
@@ -3847,40 +3261,26 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="1"/>
-        <v>19:00</v>
+        <v/>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="2"/>
-        <v>19:05</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="5" t="s">
         <v>13</v>
       </c>
@@ -3890,46 +3290,32 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="1"/>
-        <v>20:40</v>
+        <v/>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="2"/>
-        <v>20:31</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
-        <v>21:34</v>
+        <v/>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="1"/>
@@ -3937,30 +3323,20 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" si="2"/>
-        <v>21:49</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>267</v>
-      </c>
+      <c r="B48" s="12"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="5" t="s">
@@ -3972,7 +3348,7 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="1"/>
-        <v>22:21</v>
+        <v/>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="2"/>
@@ -3983,29 +3359,15 @@
       <c r="A49" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>267</v>
-      </c>
+      <c r="B49" s="58"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
-      <c r="E49" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="I49" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="60" t="s">
         <v>5</v>
       </c>
@@ -4015,11 +3377,11 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="1"/>
-        <v>23:45</v>
+        <v/>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="2"/>
-        <v>23:09</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4509,47 +3871,29 @@
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C61" s="86" t="s">
-        <v>365</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="F61" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="I61" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>363</v>
-      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="6"/>
       <c r="K61" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="0"/>
-        <v>11:21</v>
+        <v/>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="1"/>
-        <v>11:21</v>
+        <v/>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="2"/>
-        <v>11:21</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:15">

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71EF2BB-9407-4015-A479-DF57C14D7F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33C148-4F1B-4CD1-940F-44C1987401D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27375" yWindow="4740" windowWidth="23445" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="367">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1172,6 +1172,26 @@
   </si>
   <si>
     <t>10:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒影林 / 武運村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武運村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悲鳴村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:39</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1938,8 +1958,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3388,25 +3408,15 @@
       <c r="A50" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>267</v>
-      </c>
+      <c r="B50" s="55"/>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
-      <c r="E50" s="55" t="s">
-        <v>267</v>
-      </c>
+      <c r="E50" s="55"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
-      <c r="H50" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>6</v>
-      </c>
+      <c r="H50" s="56"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="29" t="s">
         <v>48</v>
       </c>
@@ -3420,77 +3430,49 @@
       </c>
       <c r="O50" t="str">
         <f t="shared" si="2"/>
-        <v>00:00</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="29" t="s">
         <v>47</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
-        <v>01:56</v>
+        <v/>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="1"/>
-        <v>01:11</v>
+        <v/>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="2"/>
-        <v>01:36</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>267</v>
-      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="29" t="s">
@@ -3502,7 +3484,7 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="1"/>
-        <v>02:54</v>
+        <v/>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="2"/>
@@ -3513,25 +3495,15 @@
       <c r="A53" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="E53" s="11"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="29" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3517,7 @@
       </c>
       <c r="O53" t="str">
         <f t="shared" si="2"/>
-        <v>03:02</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3557,24 +3529,12 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="29" t="s">
         <v>42</v>
       </c>
@@ -3584,11 +3544,11 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="1"/>
-        <v>04:18</v>
+        <v/>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="2"/>
-        <v>04:30</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3871,21 +3831,33 @@
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="86"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="6"/>
+      <c r="H61" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I61" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K61" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>11:30</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="1"/>
@@ -3893,7 +3865,7 @@
       </c>
       <c r="O61" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>11:39</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -7048,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11920,7 +11892,7 @@
         <v>61</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="E117" s="37" t="s">
         <v>227</v>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D5C33-0F18-4649-BB01-24AEE1DB0170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F4D9A-EF7E-4F90-BE14-23217CFE5C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27375" yWindow="4740" windowWidth="23445" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="367">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1168,6 +1168,18 @@
     <rPh sb="16" eb="17">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13:18_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:59_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黑鯰王</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1935,7 +1947,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3797,9 +3809,15 @@
       <c r="D61" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="6"/>
+      <c r="E61" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H61" s="9" t="s">
         <v>361</v>
       </c>
@@ -3818,7 +3836,7 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11:59_?</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="2"/>
@@ -3861,9 +3879,15 @@
       <c r="B63" s="9"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="E63" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3876,7 +3900,7 @@
       </c>
       <c r="N63" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>13:18_?</v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="2"/>
@@ -6978,7 +7002,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107:D107"/>
+      <selection activeCell="F107" sqref="F107:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F4D9A-EF7E-4F90-BE14-23217CFE5C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA01CF3-0F80-4F26-A2DB-4D7AE778268E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27375" yWindow="4740" windowWidth="23445" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26775" yWindow="5355" windowWidth="21570" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="371">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1180,6 +1180,22 @@
   </si>
   <si>
     <t>黑鯰王</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13:06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12:58</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:45_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:28</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1947,7 +1963,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1960,10 +1976,11 @@
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3850,11 +3867,17 @@
       <c r="B62" s="11"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="E62" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="6"/>
+      <c r="I62" s="86"/>
       <c r="J62" s="6"/>
       <c r="K62" s="29" t="s">
         <v>31</v>
@@ -3865,7 +3888,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>12:58</v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="2"/>
@@ -3888,9 +3911,15 @@
       <c r="G63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="H63" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I63" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K63" s="29" t="s">
         <v>30</v>
       </c>
@@ -3904,7 +3933,7 @@
       </c>
       <c r="O63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>13:06</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3914,12 +3943,24 @@
       <c r="B64" s="11"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="E64" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K64" s="29" t="s">
         <v>29</v>
       </c>
@@ -3929,11 +3970,11 @@
       </c>
       <c r="N64" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>14:28</v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>14:45_?</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -7002,7 +7043,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:G107"/>
+      <selection activeCell="F111" sqref="F111:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA01CF3-0F80-4F26-A2DB-4D7AE778268E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AE6A4-9611-4FAD-97B9-974608169E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26775" yWindow="5355" windowWidth="21570" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28680" yWindow="3690" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="374">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1191,11 +1191,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>14:45_?</t>
+    <t>14:28</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>14:28</t>
+    <t>14:47</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:41</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:11_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:12_?</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1962,8 +1974,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3940,11 +3952,17 @@
       <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E64" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>1</v>
@@ -3953,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>19</v>
@@ -3966,7 +3984,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>14:47</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="1"/>
@@ -3974,7 +3992,7 @@
       </c>
       <c r="O64" t="str">
         <f t="shared" si="2"/>
-        <v>14:45_?</v>
+        <v>14:41</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4013,12 +4031,24 @@
       <c r="B66" s="9"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="E66" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K66" s="29" t="s">
         <v>23</v>
       </c>
@@ -4028,11 +4058,11 @@
       </c>
       <c r="N66" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16:11_?</v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>16:12_?</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -7042,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111:G111"/>
+    <sheetView topLeftCell="F79" workbookViewId="0">
+      <selection activeCell="J81" sqref="I81:J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AE6A4-9611-4FAD-97B9-974608169E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210AF72-D99F-494C-9A92-42D6440952B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="3690" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18795" yWindow="3495" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="376">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1207,7 +1207,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>16:12_?</t>
+    <t>16:07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15:58</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1394,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,6 +1658,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1975,7 +1986,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4002,9 +4013,15 @@
       <c r="B65" s="21"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="E65" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -4017,7 +4034,7 @@
       </c>
       <c r="N65" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15:58</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="2"/>
@@ -4062,7 +4079,7 @@
       </c>
       <c r="O66" t="str">
         <f t="shared" si="2"/>
-        <v>16:12_?</v>
+        <v>16:07</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4075,9 +4092,15 @@
       <c r="E67" s="11"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="H67" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="I67" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K67" s="29" t="s">
         <v>22</v>
       </c>
@@ -4091,7 +4114,7 @@
       </c>
       <c r="O67" t="str">
         <f t="shared" ref="O67:O130" si="5">IF($H67&lt;&gt;"",TEXT($H67,"HH:MM"),"")</f>
-        <v/>
+        <v>17:31</v>
       </c>
     </row>
     <row r="68" spans="1:15">

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210AF72-D99F-494C-9A92-42D6440952B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0DBB1-2804-4CF9-86B6-948219D92D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18795" yWindow="3495" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="378">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1211,11 +1211,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>17:31</t>
+    <t>15:58</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>15:58</t>
+    <t>19:08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:31_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:34</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1986,7 +1994,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4014,7 +4022,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>37</v>
@@ -4089,11 +4097,17 @@
       <c r="B67" s="21"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="E67" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H67" s="87" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I67" s="86" t="s">
         <v>11</v>
@@ -4110,11 +4124,11 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N130" si="4">IF($E67&lt;&gt;"",TEXT($E67,"HH:MM"),"")</f>
-        <v/>
+        <v>17:31_?</v>
       </c>
       <c r="O67" t="str">
         <f t="shared" ref="O67:O130" si="5">IF($H67&lt;&gt;"",TEXT($H67,"HH:MM"),"")</f>
-        <v>17:31</v>
+        <v>17:34</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4150,9 +4164,15 @@
       <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4164,7 +4184,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>19:08</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="4"/>
@@ -7095,8 +7115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="F79" workbookViewId="0">
-      <selection activeCell="J81" sqref="I81:J81"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0DBB1-2804-4CF9-86B6-948219D92D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C64CE91-C808-4093-AE73-8079CD2F9F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18795" yWindow="3495" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18645" yWindow="7530" windowWidth="18720" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="384">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1145,10 +1145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>10:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>11:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1159,9 +1155,6 @@
   <si>
     <t>11:39</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06 - 11 例行維護中</t>
   </si>
   <si>
     <t>06 - 10 定期メンテナンス中</t>
@@ -1224,6 +1217,41 @@
   </si>
   <si>
     <t>17:34</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:20_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:34</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18:59</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18:??_??</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06 - 10 例行維護中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06 - 09 定期メンテナンス中</t>
+    <rPh sb="16" eb="17">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1994,7 +2022,7 @@
   <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3623,28 +3651,28 @@
         <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>109</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="K56" s="29" t="s">
         <v>40</v>
@@ -3670,28 +3698,28 @@
         <v>113</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="K57" s="29" t="s">
         <v>39</v>
@@ -3717,28 +3745,28 @@
         <v>110</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="K58" s="29" t="s">
         <v>38</v>
@@ -3764,29 +3792,23 @@
         <v>111</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="11" t="s">
         <v>111</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="11" t="s">
         <v>111</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="J59" s="6"/>
       <c r="K59" s="29" t="s">
         <v>35</v>
       </c>
@@ -3807,41 +3829,29 @@
       <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="29" t="s">
         <v>34</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="0"/>
-        <v>10:00</v>
+        <v/>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="1"/>
-        <v>10:00</v>
+        <v/>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="2"/>
-        <v>10:00</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3849,7 +3859,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" s="86" t="s">
         <v>65</v>
@@ -3858,7 +3868,7 @@
         <v>103</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F61" s="86" t="s">
         <v>37</v>
@@ -3867,7 +3877,7 @@
         <v>36</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I61" s="86" t="s">
         <v>11</v>
@@ -3899,10 +3909,10 @@
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>24</v>
@@ -3934,16 +3944,16 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I63" s="86" t="s">
         <v>11</v>
@@ -3972,7 +3982,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>71</v>
@@ -3981,7 +3991,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>1</v>
@@ -3990,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>19</v>
@@ -4022,7 +4032,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>37</v>
@@ -4057,7 +4067,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>37</v>
@@ -4066,7 +4076,7 @@
         <v>36</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>7</v>
@@ -4098,7 +4108,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>16</v>
@@ -4107,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="87" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I67" s="86" t="s">
         <v>11</v>
@@ -4138,12 +4148,24 @@
       <c r="B68" s="11"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="E68" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="I68" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K68" s="29" t="s">
         <v>17</v>
       </c>
@@ -4153,11 +4175,11 @@
       </c>
       <c r="N68" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>18:??_??</v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>18:59</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4165,7 +4187,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>76</v>
@@ -4173,9 +4195,15 @@
       <c r="D69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="E69" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -4188,7 +4216,7 @@
       </c>
       <c r="N69" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>19:20_?</v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="5"/>
@@ -4202,12 +4230,24 @@
       <c r="B70" s="9"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="E70" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="87" t="s">
+        <v>377</v>
+      </c>
+      <c r="I70" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="K70" s="29" t="s">
         <v>13</v>
       </c>
@@ -4217,11 +4257,11 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>20:26</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>20:34</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4263,9 +4303,15 @@
       <c r="E72" s="9"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="H72" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K72" s="29" t="s">
         <v>8</v>
       </c>
@@ -4279,7 +4325,7 @@
       </c>
       <c r="O72" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>22:08</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="19.5" thickBot="1">
@@ -7098,12 +7144,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="定期メンテナンス中">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="定期メンテナンス中">
       <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:J1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="例行維護中">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11987,7 +12033,7 @@
         <v>61</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E117" s="37" t="s">
         <v>227</v>
@@ -14162,12 +14208,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="定期メンテナンス中">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="定期メンテナンス中">
       <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:J1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="例行維護中">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0D38E-1083-4E4C-9EDA-3F3400302654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572BE97C-4D18-4BF8-A315-D1A71696162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="7455" windowWidth="19830" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57705" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
-    <sheet name="timeList_jp" sheetId="3" r:id="rId2"/>
-    <sheet name="S1" sheetId="2" r:id="rId3"/>
+    <sheet name="S1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S1'!$A$1:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S1'!$A$1:$J$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="402">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1138,176 +1137,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>17:34</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>22:07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オオウスバ</t>
   </si>
   <si>
     <t>新緑</t>
-  </si>
-  <si>
-    <t>06:52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>02:57</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:42</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>03:00_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:30_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06:02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>09:01</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>01:01</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>03:58</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>05:24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06:55</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>02:26</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>09:54</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:34</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:57_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:29</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18:18</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:41</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>巨岩の海岸 / 悪鬼都市</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>16:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:45_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>19:16_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:51</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:54</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18:55</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01:49</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:45</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:59</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>悲鳴村 / 海岸</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1316,430 +1163,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>22:16_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:48</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>02:28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>05:31</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:36</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:59</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>00:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01:32</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>03:04</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06:09</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:35</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>09:06</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:05_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:35</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:04</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:38</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:06</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:57</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:18</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18:43</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:17</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:50</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:58</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>19:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>22:39</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:38</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:34</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01:28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>02:50_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:26</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>05:53</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:25</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:57</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:29</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:57</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01:26</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>02:53</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:19</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>05:46</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:04</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18:26</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:53</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:49</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16:15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:47</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>19:21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:53</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>22:20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16:03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:36</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:38</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>19:10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>22:10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:44</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>00:55</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>05:35</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>08:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:08</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11:26</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15:51</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>06:08</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>09:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>00:59</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>02:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>04:08</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>07:03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10:03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13:05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:37</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14:21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12:52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:40_?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16:12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:16</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>18:44</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>17:42</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20:42</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>21:42</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:16</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>23:34</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>19:06</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>22:27</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>00:33</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>03:23</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>黑森林 / 灰狼村</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1819,6 +1246,163 @@
   </si>
   <si>
     <t>16:34</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>14:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>10:0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18:06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>22:03</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>19:15</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>20:41</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>22:25</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イノシシ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>萬年殭屍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>22:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23:53</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>17:31</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02:30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03:52</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1829,7 +1413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\'hh:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1467,13 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2012,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2300,13 +1891,19 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2624,8 +2221,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4422,28 +4019,28 @@
         <v>104</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>514</v>
+        <v>371</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>104</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>104</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="L56" s="29" t="s">
         <v>38</v>
@@ -4472,28 +4069,28 @@
         <v>108</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>108</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>108</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>37</v>
@@ -4522,28 +4119,28 @@
         <v>105</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>105</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>105</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>36</v>
@@ -4572,21 +4169,21 @@
         <v>106</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="11" t="s">
         <v>106</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="11" t="s">
         <v>106</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="29" t="s">
@@ -4613,17 +4210,19 @@
         <v>70</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>363</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="F60" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="9"/>
@@ -4634,7 +4233,7 @@
       </c>
       <c r="N60" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>10:00</v>
+        <v>10:09</v>
       </c>
       <c r="O60" s="97" t="str">
         <f t="shared" si="1"/>
@@ -4656,17 +4255,17 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="9" t="s">
-        <v>511</v>
+        <v>368</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="9" t="s">
-        <v>523</v>
+        <v>380</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="29" t="s">
@@ -4699,10 +4298,10 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="9" t="s">
-        <v>510</v>
+        <v>367</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="29" t="s">
@@ -4732,17 +4331,17 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="9" t="s">
-        <v>512</v>
+        <v>369</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="9" t="s">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>521</v>
+        <v>378</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="29" t="s">
@@ -4769,17 +4368,17 @@
         <v>70</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>505</v>
+        <v>362</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="9" t="s">
-        <v>524</v>
+        <v>381</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="9"/>
@@ -4790,7 +4389,7 @@
       </c>
       <c r="N64" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>14:38</v>
+        <v>14:39</v>
       </c>
       <c r="O64" s="97" t="str">
         <f t="shared" si="1"/>
@@ -4815,10 +4414,10 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="86" t="s">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="29" t="s">
@@ -4847,14 +4446,20 @@
       <c r="C66" s="9"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="F66" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I66" s="9" t="s">
-        <v>525</v>
+        <v>382</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>522</v>
+        <v>379</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="29" t="s">
@@ -4866,7 +4471,7 @@
       </c>
       <c r="O66" s="97" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16:08</v>
       </c>
       <c r="P66" s="97" t="str">
         <f t="shared" si="2"/>
@@ -4883,8 +4488,12 @@
       <c r="C67" s="21"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="6"/>
+      <c r="F67" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="86"/>
       <c r="J67" s="6"/>
@@ -4898,7 +4507,7 @@
       </c>
       <c r="O67" s="97" t="str">
         <f t="shared" ref="O67:O130" si="4">IF($F67&lt;&gt;"",TEXT($F67,"HH:MM"),"")</f>
-        <v/>
+        <v>17:31</v>
       </c>
       <c r="P67" s="97" t="str">
         <f t="shared" ref="P67:P130" si="5">IF($I67&lt;&gt;"",TEXT($I67,"HH:MM"),"")</f>
@@ -4913,17 +4522,21 @@
         <v>70</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>516</v>
+        <v>373</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>517</v>
+        <v>374</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="6"/>
+      <c r="I68" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="K68" s="6"/>
       <c r="L68" s="29" t="s">
         <v>16</v>
@@ -4938,7 +4551,7 @@
       </c>
       <c r="P68" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>18:06</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4951,11 +4564,19 @@
       <c r="C69" s="9"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="6"/>
+      <c r="F69" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="6"/>
+      <c r="I69" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="K69" s="6"/>
       <c r="L69" s="29" t="s">
         <v>13</v>
@@ -4966,11 +4587,11 @@
       </c>
       <c r="O69" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>19:15</v>
       </c>
       <c r="P69" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>19:32</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4983,9 +4604,15 @@
       <c r="C70" s="9"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="F70" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I70" s="86"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -4998,7 +4625,7 @@
       </c>
       <c r="O70" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>20:41</v>
       </c>
       <c r="P70" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5018,8 +4645,12 @@
       <c r="F71" s="9"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="6"/>
+      <c r="I71" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="K71" s="6"/>
       <c r="L71" s="29" t="s">
         <v>8</v>
@@ -5034,7 +4665,7 @@
       </c>
       <c r="P71" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>21:00</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5044,29 +4675,43 @@
       <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="100" t="s">
+        <v>396</v>
+      </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="I72" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="L72" s="29" t="s">
         <v>7</v>
       </c>
       <c r="N72" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22:03</v>
       </c>
       <c r="O72" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>22:12</v>
       </c>
       <c r="P72" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>22:25</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16.5" thickBot="1">
@@ -5079,11 +4724,15 @@
       <c r="C73" s="87"/>
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
-      <c r="F73" s="64"/>
+      <c r="F73" s="87"/>
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="63"/>
+      <c r="I73" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="J73" s="63" t="s">
+        <v>10</v>
+      </c>
       <c r="K73" s="63"/>
       <c r="L73" s="65" t="s">
         <v>5</v>
@@ -5098,7 +4747,7 @@
       </c>
       <c r="P73" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>23:53</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5111,8 +4760,12 @@
       <c r="C74" s="62"/>
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="61"/>
+      <c r="F74" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>1</v>
+      </c>
       <c r="H74" s="61"/>
       <c r="I74" s="62"/>
       <c r="J74" s="61"/>
@@ -5126,7 +4779,7 @@
       </c>
       <c r="O74" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>00:59</v>
       </c>
       <c r="P74" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5143,15 +4796,15 @@
       <c r="C75" s="17"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="18" t="s">
-        <v>362</v>
-      </c>
+      <c r="F75" s="18"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="J75" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="2" t="s">
         <v>45</v>
@@ -5162,7 +4815,7 @@
       </c>
       <c r="O75" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>01:25</v>
+        <v/>
       </c>
       <c r="P75" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5176,29 +4829,33 @@
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>359</v>
-      </c>
+      <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="88" t="s">
-        <v>372</v>
-      </c>
-      <c r="J76" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N76" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>02:57</v>
+        <v/>
       </c>
       <c r="O76" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>02:30</v>
       </c>
       <c r="P76" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5215,15 +4872,15 @@
       <c r="C77" s="18"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="18" t="s">
-        <v>363</v>
-      </c>
+      <c r="F77" s="18"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="J77" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="2" t="s">
         <v>41</v>
@@ -5234,11 +4891,11 @@
       </c>
       <c r="O77" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>03:00_?</v>
+        <v/>
       </c>
       <c r="P77" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>03:58</v>
+        <v>03:52</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5251,9 +4908,7 @@
       <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="18" t="s">
-        <v>364</v>
-      </c>
+      <c r="F78" s="18"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="18"/>
@@ -5268,7 +4923,7 @@
       </c>
       <c r="O78" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>04:30_?</v>
+        <v/>
       </c>
       <c r="P78" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5288,9 +4943,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="18" t="s">
-        <v>370</v>
-      </c>
+      <c r="I79" s="18"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="2" t="s">
@@ -5306,7 +4959,7 @@
       </c>
       <c r="P79" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>05:24</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5316,19 +4969,13 @@
       <c r="B80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>358</v>
-      </c>
+      <c r="C80" s="18"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="18" t="s">
-        <v>365</v>
-      </c>
+      <c r="F80" s="18"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="88" t="s">
-        <v>371</v>
-      </c>
+      <c r="I80" s="88"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="2" t="s">
@@ -5336,15 +4983,15 @@
       </c>
       <c r="N80" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>06:52</v>
+        <v/>
       </c>
       <c r="O80" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>06:02</v>
+        <v/>
       </c>
       <c r="P80" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>06:55</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5357,9 +5004,7 @@
       <c r="C81" s="18"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="18" t="s">
-        <v>366</v>
-      </c>
+      <c r="F81" s="18"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="18"/>
@@ -5374,7 +5019,7 @@
       </c>
       <c r="O81" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>07:28</v>
+        <v/>
       </c>
       <c r="P81" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5394,9 +5039,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="18" t="s">
-        <v>360</v>
-      </c>
+      <c r="I82" s="18"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="2" t="s">
@@ -5412,7 +5055,7 @@
       </c>
       <c r="P82" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>08:24</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5425,14 +5068,10 @@
       <c r="C83" s="17"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="18" t="s">
-        <v>367</v>
-      </c>
+      <c r="F83" s="18"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="88" t="s">
-        <v>373</v>
-      </c>
+      <c r="I83" s="88"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="2" t="s">
@@ -5444,11 +5083,11 @@
       </c>
       <c r="O83" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>09:01</v>
+        <v/>
       </c>
       <c r="P83" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>09:54</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5461,9 +5100,7 @@
       <c r="C84" s="17"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="18" t="s">
-        <v>374</v>
-      </c>
+      <c r="F84" s="18"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="18"/>
@@ -5478,7 +5115,7 @@
       </c>
       <c r="O84" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>10:33</v>
+        <v/>
       </c>
       <c r="P84" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5492,17 +5129,13 @@
       <c r="B85" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>375</v>
-      </c>
+      <c r="C85" s="18"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="17"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="18" t="s">
-        <v>376</v>
-      </c>
+      <c r="I85" s="18"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="2" t="s">
@@ -5510,7 +5143,7 @@
       </c>
       <c r="N85" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>11:07</v>
+        <v/>
       </c>
       <c r="O85" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5518,7 +5151,7 @@
       </c>
       <c r="P85" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>11:25</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5531,9 +5164,7 @@
       <c r="C86" s="17"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="18" t="s">
-        <v>378</v>
-      </c>
+      <c r="F86" s="18"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="19"/>
@@ -5548,7 +5179,7 @@
       </c>
       <c r="O86" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>12:00</v>
+        <v/>
       </c>
       <c r="P86" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5565,14 +5196,10 @@
       <c r="C87" s="17"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="F87" s="18"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="18" t="s">
-        <v>381</v>
-      </c>
+      <c r="I87" s="18"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="2" t="s">
@@ -5584,11 +5211,11 @@
       </c>
       <c r="O87" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>13:33</v>
+        <v/>
       </c>
       <c r="P87" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>13:00</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5598,19 +5225,13 @@
       <c r="B88" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>377</v>
-      </c>
+      <c r="C88" s="18"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="18" t="s">
-        <v>380</v>
-      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="18" t="s">
-        <v>382</v>
-      </c>
+      <c r="I88" s="18"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="2" t="s">
@@ -5618,15 +5239,15 @@
       </c>
       <c r="N88" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>14:34</v>
+        <v/>
       </c>
       <c r="O88" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>14:57_?</v>
+        <v/>
       </c>
       <c r="P88" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>14:29</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5642,9 +5263,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="88" t="s">
-        <v>390</v>
-      </c>
+      <c r="I89" s="88"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="2" t="s">
@@ -5660,7 +5279,7 @@
       </c>
       <c r="P89" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>15:54</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5673,9 +5292,7 @@
       <c r="C90" s="18"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18" t="s">
-        <v>386</v>
-      </c>
+      <c r="F90" s="18"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="18"/>
@@ -5690,7 +5307,7 @@
       </c>
       <c r="O90" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>16:25</v>
+        <v/>
       </c>
       <c r="P90" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5707,14 +5324,10 @@
       <c r="C91" s="17"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="18" t="s">
-        <v>387</v>
-      </c>
+      <c r="F91" s="18"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="18" t="s">
-        <v>391</v>
-      </c>
+      <c r="I91" s="18"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="2" t="s">
@@ -5726,11 +5339,11 @@
       </c>
       <c r="O91" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>17:45_?</v>
+        <v/>
       </c>
       <c r="P91" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>17:25</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5740,17 +5353,13 @@
       <c r="B92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>383</v>
-      </c>
+      <c r="C92" s="18"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="18"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="88" t="s">
-        <v>392</v>
-      </c>
+      <c r="I92" s="88"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="2" t="s">
@@ -5758,7 +5367,7 @@
       </c>
       <c r="N92" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>18:18</v>
+        <v/>
       </c>
       <c r="O92" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5766,7 +5375,7 @@
       </c>
       <c r="P92" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>18:55</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5779,9 +5388,7 @@
       <c r="C93" s="17"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="18" t="s">
-        <v>388</v>
-      </c>
+      <c r="F93" s="18"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="18"/>
@@ -5796,7 +5403,7 @@
       </c>
       <c r="O93" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>19:16_?</v>
+        <v/>
       </c>
       <c r="P93" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5813,14 +5420,10 @@
       <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="18" t="s">
-        <v>389</v>
-      </c>
+      <c r="F94" s="18"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="18" t="s">
-        <v>393</v>
-      </c>
+      <c r="I94" s="18"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="2" t="s">
@@ -5832,11 +5435,11 @@
       </c>
       <c r="O94" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>20:51</v>
+        <v/>
       </c>
       <c r="P94" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>20:24</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5846,17 +5449,13 @@
       <c r="B95" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>384</v>
-      </c>
+      <c r="C95" s="18"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="18"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="18" t="s">
-        <v>406</v>
-      </c>
+      <c r="I95" s="18"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="2" t="s">
@@ -5864,7 +5463,7 @@
       </c>
       <c r="N95" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>21:41</v>
+        <v/>
       </c>
       <c r="O95" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5872,7 +5471,7 @@
       </c>
       <c r="P95" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>21:59</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5885,9 +5484,7 @@
       <c r="C96" s="17"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="18" t="s">
-        <v>399</v>
-      </c>
+      <c r="F96" s="18"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="19"/>
@@ -5902,7 +5499,7 @@
       </c>
       <c r="O96" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>22:16_?</v>
+        <v/>
       </c>
       <c r="P96" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5919,14 +5516,10 @@
       <c r="C97" s="70"/>
       <c r="D97" s="69"/>
       <c r="E97" s="69"/>
-      <c r="F97" s="70" t="s">
-        <v>400</v>
-      </c>
+      <c r="F97" s="70"/>
       <c r="G97" s="69"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="70" t="s">
-        <v>407</v>
-      </c>
+      <c r="I97" s="70"/>
       <c r="J97" s="69"/>
       <c r="K97" s="69"/>
       <c r="L97" s="71" t="s">
@@ -5938,11 +5531,11 @@
       </c>
       <c r="O97" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>23:48</v>
+        <v/>
       </c>
       <c r="P97" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>23:25</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5958,9 +5551,7 @@
       <c r="F98" s="68"/>
       <c r="G98" s="66"/>
       <c r="H98" s="66"/>
-      <c r="I98" s="68" t="s">
-        <v>408</v>
-      </c>
+      <c r="I98" s="68"/>
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
       <c r="L98" s="38" t="s">
@@ -5976,7 +5567,7 @@
       </c>
       <c r="P98" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>00:00</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5986,17 +5577,13 @@
       <c r="B99" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="37" t="s">
-        <v>394</v>
-      </c>
+      <c r="C99" s="37"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
       <c r="F99" s="37"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="37" t="s">
-        <v>409</v>
-      </c>
+      <c r="I99" s="37"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="38" t="s">
@@ -6004,7 +5591,7 @@
       </c>
       <c r="N99" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>01:49</v>
+        <v/>
       </c>
       <c r="O99" s="97" t="str">
         <f t="shared" si="4"/>
@@ -6012,7 +5599,7 @@
       </c>
       <c r="P99" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>01:32</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6025,9 +5612,7 @@
       <c r="C100" s="36"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
-      <c r="F100" s="37" t="s">
-        <v>401</v>
-      </c>
+      <c r="F100" s="37"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
       <c r="I100" s="36"/>
@@ -6042,7 +5627,7 @@
       </c>
       <c r="O100" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>02:28</v>
+        <v/>
       </c>
       <c r="P100" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6062,9 +5647,7 @@
       <c r="F101" s="37"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="37" t="s">
-        <v>410</v>
-      </c>
+      <c r="I101" s="37"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="38" t="s">
@@ -6080,7 +5663,7 @@
       </c>
       <c r="P101" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>03:04</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6090,19 +5673,13 @@
       <c r="B102" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="37" t="s">
-        <v>395</v>
-      </c>
+      <c r="C102" s="37"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
-      <c r="F102" s="37" t="s">
-        <v>402</v>
-      </c>
+      <c r="F102" s="37"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="37" t="s">
-        <v>411</v>
-      </c>
+      <c r="I102" s="37"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="38" t="s">
@@ -6110,15 +5687,15 @@
       </c>
       <c r="N102" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>04:45</v>
+        <v/>
       </c>
       <c r="O102" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>04:03</v>
+        <v/>
       </c>
       <c r="P102" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>04:37</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6131,9 +5708,7 @@
       <c r="C103" s="36"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
-      <c r="F103" s="37" t="s">
-        <v>403</v>
-      </c>
+      <c r="F103" s="37"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
       <c r="I103" s="36"/>
@@ -6148,7 +5723,7 @@
       </c>
       <c r="O103" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>05:31</v>
+        <v/>
       </c>
       <c r="P103" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6168,9 +5743,7 @@
       <c r="F104" s="37"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="37" t="s">
-        <v>412</v>
-      </c>
+      <c r="I104" s="37"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="38" t="s">
@@ -6186,7 +5759,7 @@
       </c>
       <c r="P104" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>06:09</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6199,14 +5772,10 @@
       <c r="C105" s="36"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
-      <c r="F105" s="37" t="s">
-        <v>404</v>
-      </c>
+      <c r="F105" s="37"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="37" t="s">
-        <v>413</v>
-      </c>
+      <c r="I105" s="37"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="38" t="s">
@@ -6218,11 +5787,11 @@
       </c>
       <c r="O105" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>07:05</v>
+        <v/>
       </c>
       <c r="P105" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>07:35</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6232,14 +5801,10 @@
       <c r="B106" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C106" s="37" t="s">
-        <v>396</v>
-      </c>
+      <c r="C106" s="37"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
-      <c r="F106" s="37" t="s">
-        <v>405</v>
-      </c>
+      <c r="F106" s="37"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="36"/>
@@ -6250,11 +5815,11 @@
       </c>
       <c r="N106" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>08:59</v>
+        <v/>
       </c>
       <c r="O106" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>08:36</v>
+        <v/>
       </c>
       <c r="P106" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6274,9 +5839,7 @@
       <c r="F107" s="37"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
-      <c r="I107" s="37" t="s">
-        <v>414</v>
-      </c>
+      <c r="I107" s="37"/>
       <c r="J107" s="35"/>
       <c r="K107" s="35"/>
       <c r="L107" s="38" t="s">
@@ -6292,7 +5855,7 @@
       </c>
       <c r="P107" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>09:06</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6305,14 +5868,10 @@
       <c r="C108" s="36"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
-      <c r="F108" s="37" t="s">
-        <v>415</v>
-      </c>
+      <c r="F108" s="37"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
-      <c r="I108" s="37" t="s">
-        <v>418</v>
-      </c>
+      <c r="I108" s="37"/>
       <c r="J108" s="35"/>
       <c r="K108" s="35"/>
       <c r="L108" s="38" t="s">
@@ -6324,11 +5883,11 @@
       </c>
       <c r="O108" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>10:05_?</v>
+        <v/>
       </c>
       <c r="P108" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>10:37</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6341,9 +5900,7 @@
       <c r="C109" s="36"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
-      <c r="F109" s="37" t="s">
-        <v>416</v>
-      </c>
+      <c r="F109" s="37"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
       <c r="I109" s="36"/>
@@ -6358,7 +5915,7 @@
       </c>
       <c r="O109" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>11:35</v>
+        <v/>
       </c>
       <c r="P109" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6372,17 +5929,13 @@
       <c r="B110" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C110" s="36" t="s">
-        <v>271</v>
-      </c>
+      <c r="C110" s="36"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
       <c r="F110" s="37"/>
       <c r="G110" s="35"/>
       <c r="H110" s="35"/>
-      <c r="I110" s="37" t="s">
-        <v>419</v>
-      </c>
+      <c r="I110" s="37"/>
       <c r="J110" s="35"/>
       <c r="K110" s="35"/>
       <c r="L110" s="38" t="s">
@@ -6390,7 +5943,7 @@
       </c>
       <c r="N110" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>12:09</v>
+        <v/>
       </c>
       <c r="O110" s="97" t="str">
         <f t="shared" si="4"/>
@@ -6398,7 +5951,7 @@
       </c>
       <c r="P110" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>12:04</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6411,14 +5964,10 @@
       <c r="C111" s="37"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
-      <c r="F111" s="37" t="s">
-        <v>381</v>
-      </c>
+      <c r="F111" s="37"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
-      <c r="I111" s="37" t="s">
-        <v>420</v>
-      </c>
+      <c r="I111" s="37"/>
       <c r="J111" s="35"/>
       <c r="K111" s="35"/>
       <c r="L111" s="38" t="s">
@@ -6430,11 +5979,11 @@
       </c>
       <c r="O111" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>13:00</v>
+        <v/>
       </c>
       <c r="P111" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>13:38</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6447,9 +5996,7 @@
       <c r="C112" s="36"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
-      <c r="F112" s="37" t="s">
-        <v>417</v>
-      </c>
+      <c r="F112" s="37"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
       <c r="I112" s="37"/>
@@ -6464,7 +6011,7 @@
       </c>
       <c r="O112" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>14:25</v>
+        <v/>
       </c>
       <c r="P112" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6478,19 +6025,13 @@
       <c r="B113" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C113" s="37" t="s">
-        <v>421</v>
-      </c>
+      <c r="C113" s="37"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35"/>
-      <c r="F113" s="37" t="s">
-        <v>422</v>
-      </c>
+      <c r="F113" s="37"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
-      <c r="I113" s="89" t="s">
-        <v>423</v>
-      </c>
+      <c r="I113" s="89"/>
       <c r="J113" s="35"/>
       <c r="K113" s="35"/>
       <c r="L113" s="38" t="s">
@@ -6498,15 +6039,15 @@
       </c>
       <c r="N113" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>15:03</v>
+        <v/>
       </c>
       <c r="O113" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>15:52</v>
+        <v/>
       </c>
       <c r="P113" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>15:06</v>
+        <v/>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6522,9 +6063,7 @@
       <c r="F114" s="37"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
-      <c r="I114" s="37" t="s">
-        <v>430</v>
-      </c>
+      <c r="I114" s="37"/>
       <c r="J114" s="35"/>
       <c r="K114" s="35"/>
       <c r="L114" s="38" t="s">
@@ -6540,7 +6079,7 @@
       </c>
       <c r="P114" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>16:33</v>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6550,19 +6089,13 @@
       <c r="B115" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C115" s="37" t="s">
-        <v>354</v>
-      </c>
+      <c r="C115" s="37"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
-      <c r="F115" s="37" t="s">
-        <v>425</v>
-      </c>
+      <c r="F115" s="37"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
-      <c r="I115" s="37" t="s">
-        <v>431</v>
-      </c>
+      <c r="I115" s="37"/>
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
       <c r="L115" s="38" t="s">
@@ -6570,15 +6103,15 @@
       </c>
       <c r="N115" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>17:34</v>
+        <v/>
       </c>
       <c r="O115" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>17:18</v>
+        <v/>
       </c>
       <c r="P115" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>17:58</v>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6591,9 +6124,7 @@
       <c r="C116" s="36"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35"/>
-      <c r="F116" s="37" t="s">
-        <v>426</v>
-      </c>
+      <c r="F116" s="37"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
       <c r="I116" s="36"/>
@@ -6608,7 +6139,7 @@
       </c>
       <c r="O116" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>18:43</v>
+        <v/>
       </c>
       <c r="P116" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6628,9 +6159,7 @@
       <c r="F117" s="37"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
-      <c r="I117" s="37" t="s">
-        <v>432</v>
-      </c>
+      <c r="I117" s="37"/>
       <c r="J117" s="35"/>
       <c r="K117" s="35"/>
       <c r="L117" s="38" t="s">
@@ -6646,7 +6175,7 @@
       </c>
       <c r="P117" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>19:33</v>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6656,14 +6185,10 @@
       <c r="B118" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C118" s="37" t="s">
-        <v>424</v>
-      </c>
+      <c r="C118" s="37"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
-      <c r="F118" s="37" t="s">
-        <v>427</v>
-      </c>
+      <c r="F118" s="37"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
       <c r="I118" s="37"/>
@@ -6674,11 +6199,11 @@
       </c>
       <c r="N118" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>20:57</v>
+        <v/>
       </c>
       <c r="O118" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>20:17</v>
+        <v/>
       </c>
       <c r="P118" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6695,14 +6220,10 @@
       <c r="C119" s="36"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
-      <c r="F119" s="37" t="s">
-        <v>428</v>
-      </c>
+      <c r="F119" s="37"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
-      <c r="I119" s="37" t="s">
-        <v>433</v>
-      </c>
+      <c r="I119" s="37"/>
       <c r="J119" s="35"/>
       <c r="K119" s="35"/>
       <c r="L119" s="38" t="s">
@@ -6714,11 +6235,11 @@
       </c>
       <c r="O119" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>21:50</v>
+        <v/>
       </c>
       <c r="P119" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>21:07</v>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6734,9 +6255,7 @@
       <c r="F120" s="37"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
-      <c r="I120" s="37" t="s">
-        <v>434</v>
-      </c>
+      <c r="I120" s="37"/>
       <c r="J120" s="35"/>
       <c r="K120" s="35"/>
       <c r="L120" s="38" t="s">
@@ -6752,7 +6271,7 @@
       </c>
       <c r="P120" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>22:39</v>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16.5" thickBot="1">
@@ -6765,9 +6284,7 @@
       <c r="C121" s="77"/>
       <c r="D121" s="75"/>
       <c r="E121" s="75"/>
-      <c r="F121" s="77" t="s">
-        <v>429</v>
-      </c>
+      <c r="F121" s="77"/>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
       <c r="I121" s="77"/>
@@ -6782,7 +6299,7 @@
       </c>
       <c r="O121" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>23:20</v>
+        <v/>
       </c>
       <c r="P121" s="97" t="str">
         <f t="shared" si="5"/>
@@ -6796,19 +6313,13 @@
       <c r="B122" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="74" t="s">
-        <v>503</v>
-      </c>
+      <c r="C122" s="74"/>
       <c r="D122" s="72"/>
       <c r="E122" s="72"/>
-      <c r="F122" s="74" t="s">
-        <v>408</v>
-      </c>
+      <c r="F122" s="74"/>
       <c r="G122" s="72"/>
       <c r="H122" s="72"/>
-      <c r="I122" s="74" t="s">
-        <v>408</v>
-      </c>
+      <c r="I122" s="74"/>
       <c r="J122" s="72"/>
       <c r="K122" s="72"/>
       <c r="L122" s="43" t="s">
@@ -6816,15 +6327,15 @@
       </c>
       <c r="N122" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>00:33</v>
+        <v/>
       </c>
       <c r="O122" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>00:00</v>
+        <v/>
       </c>
       <c r="P122" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>00:00</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6837,14 +6348,10 @@
       <c r="C123" s="42"/>
       <c r="D123" s="40"/>
       <c r="E123" s="40"/>
-      <c r="F123" s="42" t="s">
-        <v>438</v>
-      </c>
+      <c r="F123" s="42"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
-      <c r="I123" s="90" t="s">
-        <v>446</v>
-      </c>
+      <c r="I123" s="90"/>
       <c r="J123" s="40"/>
       <c r="K123" s="40"/>
       <c r="L123" s="43" t="s">
@@ -6856,11 +6363,11 @@
       </c>
       <c r="O123" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>01:28</v>
+        <v/>
       </c>
       <c r="P123" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>01:26</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6873,14 +6380,10 @@
       <c r="C124" s="41"/>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
-      <c r="F124" s="42" t="s">
-        <v>439</v>
-      </c>
+      <c r="F124" s="42"/>
       <c r="G124" s="40"/>
       <c r="H124" s="40"/>
-      <c r="I124" s="42" t="s">
-        <v>447</v>
-      </c>
+      <c r="I124" s="42"/>
       <c r="J124" s="40"/>
       <c r="K124" s="40"/>
       <c r="L124" s="43" t="s">
@@ -6892,11 +6395,11 @@
       </c>
       <c r="O124" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>02:50_?</v>
+        <v/>
       </c>
       <c r="P124" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>02:53</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6938,19 +6441,13 @@
       <c r="B126" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="42" t="s">
-        <v>435</v>
-      </c>
+      <c r="C126" s="42"/>
       <c r="D126" s="40"/>
       <c r="E126" s="40"/>
-      <c r="F126" s="42" t="s">
-        <v>440</v>
-      </c>
+      <c r="F126" s="42"/>
       <c r="G126" s="40"/>
       <c r="H126" s="40"/>
-      <c r="I126" s="90" t="s">
-        <v>448</v>
-      </c>
+      <c r="I126" s="90"/>
       <c r="J126" s="40"/>
       <c r="K126" s="40"/>
       <c r="L126" s="43" t="s">
@@ -6958,15 +6455,15 @@
       </c>
       <c r="N126" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>04:28</v>
+        <v/>
       </c>
       <c r="O126" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>04:26</v>
+        <v/>
       </c>
       <c r="P126" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>04:19</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6979,14 +6476,10 @@
       <c r="C127" s="42"/>
       <c r="D127" s="40"/>
       <c r="E127" s="40"/>
-      <c r="F127" s="42" t="s">
-        <v>441</v>
-      </c>
+      <c r="F127" s="42"/>
       <c r="G127" s="40"/>
       <c r="H127" s="40"/>
-      <c r="I127" s="42" t="s">
-        <v>449</v>
-      </c>
+      <c r="I127" s="42"/>
       <c r="J127" s="40"/>
       <c r="K127" s="40"/>
       <c r="L127" s="43" t="s">
@@ -6998,11 +6491,11 @@
       </c>
       <c r="O127" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>05:53</v>
+        <v/>
       </c>
       <c r="P127" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>05:46</v>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7047,14 +6540,10 @@
       <c r="C129" s="41"/>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
-      <c r="F129" s="42" t="s">
-        <v>442</v>
-      </c>
+      <c r="F129" s="42"/>
       <c r="G129" s="40"/>
       <c r="H129" s="40"/>
-      <c r="I129" s="90" t="s">
-        <v>450</v>
-      </c>
+      <c r="I129" s="90"/>
       <c r="J129" s="40"/>
       <c r="K129" s="40"/>
       <c r="L129" s="43" t="s">
@@ -7066,11 +6555,11 @@
       </c>
       <c r="O129" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>07:25</v>
+        <v/>
       </c>
       <c r="P129" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>07:13</v>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7080,19 +6569,13 @@
       <c r="B130" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="42" t="s">
-        <v>436</v>
-      </c>
+      <c r="C130" s="42"/>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
-      <c r="F130" s="42" t="s">
-        <v>443</v>
-      </c>
+      <c r="F130" s="42"/>
       <c r="G130" s="40"/>
       <c r="H130" s="40"/>
-      <c r="I130" s="42" t="s">
-        <v>451</v>
-      </c>
+      <c r="I130" s="42"/>
       <c r="J130" s="40"/>
       <c r="K130" s="40"/>
       <c r="L130" s="43" t="s">
@@ -7100,15 +6583,15 @@
       </c>
       <c r="N130" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>08:38</v>
+        <v/>
       </c>
       <c r="O130" s="97" t="str">
         <f t="shared" si="4"/>
-        <v>08:57</v>
+        <v/>
       </c>
       <c r="P130" s="97" t="str">
         <f t="shared" si="5"/>
-        <v>08:40</v>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -7153,14 +6636,10 @@
       <c r="C132" s="41"/>
       <c r="D132" s="40"/>
       <c r="E132" s="40"/>
-      <c r="F132" s="42" t="s">
-        <v>444</v>
-      </c>
+      <c r="F132" s="42"/>
       <c r="G132" s="40"/>
       <c r="H132" s="40"/>
-      <c r="I132" s="90" t="s">
-        <v>452</v>
-      </c>
+      <c r="I132" s="90"/>
       <c r="J132" s="40"/>
       <c r="K132" s="40"/>
       <c r="L132" s="43" t="s">
@@ -7172,11 +6651,11 @@
       </c>
       <c r="O132" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>10:29</v>
+        <v/>
       </c>
       <c r="P132" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>10:05</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7189,14 +6668,10 @@
       <c r="C133" s="41"/>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
-      <c r="F133" s="42" t="s">
-        <v>445</v>
-      </c>
+      <c r="F133" s="42"/>
       <c r="G133" s="40"/>
       <c r="H133" s="40"/>
-      <c r="I133" s="42" t="s">
-        <v>453</v>
-      </c>
+      <c r="I133" s="42"/>
       <c r="J133" s="40"/>
       <c r="K133" s="40"/>
       <c r="L133" s="43" t="s">
@@ -7208,11 +6683,11 @@
       </c>
       <c r="O133" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>11:57</v>
+        <v/>
       </c>
       <c r="P133" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>11:37</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7222,9 +6697,7 @@
       <c r="B134" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C134" s="42" t="s">
-        <v>437</v>
-      </c>
+      <c r="C134" s="42"/>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
       <c r="F134" s="41"/>
@@ -7238,7 +6711,7 @@
       </c>
       <c r="N134" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>12:34</v>
+        <v/>
       </c>
       <c r="O134" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7259,14 +6732,10 @@
       <c r="C135" s="41"/>
       <c r="D135" s="40"/>
       <c r="E135" s="40"/>
-      <c r="F135" s="42" t="s">
-        <v>455</v>
-      </c>
+      <c r="F135" s="42"/>
       <c r="G135" s="40"/>
       <c r="H135" s="40"/>
-      <c r="I135" s="90" t="s">
-        <v>454</v>
-      </c>
+      <c r="I135" s="90"/>
       <c r="J135" s="40"/>
       <c r="K135" s="40"/>
       <c r="L135" s="43" t="s">
@@ -7278,11 +6747,11 @@
       </c>
       <c r="O135" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>13:24</v>
+        <v/>
       </c>
       <c r="P135" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>13:04</v>
+        <v/>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7295,14 +6764,10 @@
       <c r="C136" s="42"/>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
-      <c r="F136" s="42" t="s">
-        <v>459</v>
-      </c>
+      <c r="F136" s="42"/>
       <c r="G136" s="40"/>
       <c r="H136" s="40"/>
-      <c r="I136" s="42" t="s">
-        <v>467</v>
-      </c>
+      <c r="I136" s="42"/>
       <c r="J136" s="40"/>
       <c r="K136" s="40"/>
       <c r="L136" s="43" t="s">
@@ -7314,11 +6779,11 @@
       </c>
       <c r="O136" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>14:49</v>
+        <v/>
       </c>
       <c r="P136" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>14:38</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7328,9 +6793,7 @@
       <c r="B137" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C137" s="42" t="s">
-        <v>456</v>
-      </c>
+      <c r="C137" s="42"/>
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
       <c r="F137" s="45"/>
@@ -7344,7 +6807,7 @@
       </c>
       <c r="N137" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>15:15</v>
+        <v/>
       </c>
       <c r="O137" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7365,14 +6828,10 @@
       <c r="C138" s="41"/>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
-      <c r="F138" s="42" t="s">
-        <v>460</v>
-      </c>
+      <c r="F138" s="42"/>
       <c r="G138" s="40"/>
       <c r="H138" s="40"/>
-      <c r="I138" s="42" t="s">
-        <v>465</v>
-      </c>
+      <c r="I138" s="42"/>
       <c r="J138" s="40"/>
       <c r="K138" s="40"/>
       <c r="L138" s="43" t="s">
@@ -7384,11 +6843,11 @@
       </c>
       <c r="O138" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>16:15</v>
+        <v/>
       </c>
       <c r="P138" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>16:03</v>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7401,14 +6860,10 @@
       <c r="C139" s="42"/>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
-      <c r="F139" s="42" t="s">
-        <v>461</v>
-      </c>
+      <c r="F139" s="42"/>
       <c r="G139" s="40"/>
       <c r="H139" s="40"/>
-      <c r="I139" s="42" t="s">
-        <v>466</v>
-      </c>
+      <c r="I139" s="42"/>
       <c r="J139" s="40"/>
       <c r="K139" s="40"/>
       <c r="L139" s="43" t="s">
@@ -7420,11 +6875,11 @@
       </c>
       <c r="O139" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>17:47</v>
+        <v/>
       </c>
       <c r="P139" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>17:36</v>
+        <v/>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7434,9 +6889,7 @@
       <c r="B140" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="42" t="s">
-        <v>457</v>
-      </c>
+      <c r="C140" s="42"/>
       <c r="D140" s="40"/>
       <c r="E140" s="40"/>
       <c r="F140" s="42"/>
@@ -7450,7 +6903,7 @@
       </c>
       <c r="N140" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>18:26</v>
+        <v/>
       </c>
       <c r="O140" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7471,14 +6924,10 @@
       <c r="C141" s="92"/>
       <c r="D141" s="93"/>
       <c r="E141" s="93"/>
-      <c r="F141" s="42" t="s">
-        <v>462</v>
-      </c>
+      <c r="F141" s="42"/>
       <c r="G141" s="40"/>
       <c r="H141" s="40"/>
-      <c r="I141" s="42" t="s">
-        <v>468</v>
-      </c>
+      <c r="I141" s="42"/>
       <c r="J141" s="40"/>
       <c r="K141" s="40"/>
       <c r="L141" s="43" t="s">
@@ -7490,11 +6939,11 @@
       </c>
       <c r="O141" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>19:21</v>
+        <v/>
       </c>
       <c r="P141" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>19:10</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -7507,14 +6956,10 @@
       <c r="C142" s="42"/>
       <c r="D142" s="40"/>
       <c r="E142" s="40"/>
-      <c r="F142" s="42" t="s">
-        <v>463</v>
-      </c>
+      <c r="F142" s="42"/>
       <c r="G142" s="40"/>
       <c r="H142" s="40"/>
-      <c r="I142" s="42" t="s">
-        <v>469</v>
-      </c>
+      <c r="I142" s="42"/>
       <c r="J142" s="40"/>
       <c r="K142" s="40"/>
       <c r="L142" s="43" t="s">
@@ -7526,11 +6971,11 @@
       </c>
       <c r="O142" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>20:53</v>
+        <v/>
       </c>
       <c r="P142" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>20:37</v>
+        <v/>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7540,9 +6985,7 @@
       <c r="B143" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="42" t="s">
-        <v>458</v>
-      </c>
+      <c r="C143" s="42"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="42"/>
@@ -7556,7 +6999,7 @@
       </c>
       <c r="N143" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>21:53</v>
+        <v/>
       </c>
       <c r="O143" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7577,14 +7020,10 @@
       <c r="C144" s="42"/>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
-      <c r="F144" s="42" t="s">
-        <v>464</v>
-      </c>
+      <c r="F144" s="42"/>
       <c r="G144" s="40"/>
       <c r="H144" s="40"/>
-      <c r="I144" s="42" t="s">
-        <v>470</v>
-      </c>
+      <c r="I144" s="42"/>
       <c r="J144" s="40"/>
       <c r="K144" s="40"/>
       <c r="L144" s="43" t="s">
@@ -7596,11 +7035,11 @@
       </c>
       <c r="O144" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>22:20</v>
+        <v/>
       </c>
       <c r="P144" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>22:10</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:16" ht="16.5" thickBot="1">
@@ -7613,14 +7052,10 @@
       <c r="C145" s="83"/>
       <c r="D145" s="82"/>
       <c r="E145" s="82"/>
-      <c r="F145" s="84" t="s">
-        <v>492</v>
-      </c>
+      <c r="F145" s="84"/>
       <c r="G145" s="82"/>
       <c r="H145" s="82"/>
-      <c r="I145" s="84" t="s">
-        <v>471</v>
-      </c>
+      <c r="I145" s="84"/>
       <c r="J145" s="82"/>
       <c r="K145" s="82"/>
       <c r="L145" s="85" t="s">
@@ -7632,11 +7067,11 @@
       </c>
       <c r="O145" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>23:40_?</v>
+        <v/>
       </c>
       <c r="P145" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>23:44</v>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -7649,14 +7084,10 @@
       <c r="C146" s="80"/>
       <c r="D146" s="79"/>
       <c r="E146" s="79"/>
-      <c r="F146" s="81" t="s">
-        <v>483</v>
-      </c>
+      <c r="F146" s="81"/>
       <c r="G146" s="79"/>
       <c r="H146" s="79"/>
-      <c r="I146" s="81" t="s">
-        <v>472</v>
-      </c>
+      <c r="I146" s="81"/>
       <c r="J146" s="79"/>
       <c r="K146" s="79"/>
       <c r="L146" s="33" t="s">
@@ -7668,11 +7099,11 @@
       </c>
       <c r="O146" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>00:59</v>
+        <v/>
       </c>
       <c r="P146" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>00:55</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -7717,14 +7148,10 @@
       <c r="C148" s="32"/>
       <c r="D148" s="30"/>
       <c r="E148" s="30"/>
-      <c r="F148" s="32" t="s">
-        <v>484</v>
-      </c>
+      <c r="F148" s="32"/>
       <c r="G148" s="30"/>
       <c r="H148" s="30"/>
-      <c r="I148" s="32" t="s">
-        <v>401</v>
-      </c>
+      <c r="I148" s="32"/>
       <c r="J148" s="30"/>
       <c r="K148" s="30"/>
       <c r="L148" s="33" t="s">
@@ -7736,11 +7163,11 @@
       </c>
       <c r="O148" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>02:33</v>
+        <v/>
       </c>
       <c r="P148" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>02:28</v>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -7750,9 +7177,7 @@
       <c r="B149" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C149" s="32" t="s">
-        <v>504</v>
-      </c>
+      <c r="C149" s="32"/>
       <c r="D149" s="30"/>
       <c r="E149" s="30"/>
       <c r="F149" s="32"/>
@@ -7766,7 +7191,7 @@
       </c>
       <c r="N149" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>03:23</v>
+        <v/>
       </c>
       <c r="O149" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7787,14 +7212,10 @@
       <c r="C150" s="32"/>
       <c r="D150" s="30"/>
       <c r="E150" s="30"/>
-      <c r="F150" s="32" t="s">
-        <v>485</v>
-      </c>
+      <c r="F150" s="32"/>
       <c r="G150" s="30"/>
       <c r="H150" s="30"/>
-      <c r="I150" s="32" t="s">
-        <v>473</v>
-      </c>
+      <c r="I150" s="32"/>
       <c r="J150" s="30"/>
       <c r="K150" s="30"/>
       <c r="L150" s="33" t="s">
@@ -7806,11 +7227,11 @@
       </c>
       <c r="O150" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>04:08</v>
+        <v/>
       </c>
       <c r="P150" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>04:00</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -7823,14 +7244,10 @@
       <c r="C151" s="32"/>
       <c r="D151" s="30"/>
       <c r="E151" s="30"/>
-      <c r="F151" s="32" t="s">
-        <v>474</v>
-      </c>
+      <c r="F151" s="32"/>
       <c r="G151" s="30"/>
       <c r="H151" s="30"/>
-      <c r="I151" s="32" t="s">
-        <v>474</v>
-      </c>
+      <c r="I151" s="32"/>
       <c r="J151" s="30"/>
       <c r="K151" s="30"/>
       <c r="L151" s="33" t="s">
@@ -7842,11 +7259,11 @@
       </c>
       <c r="O151" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>05:35</v>
+        <v/>
       </c>
       <c r="P151" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>05:35</v>
+        <v/>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -7856,9 +7273,7 @@
       <c r="B152" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C152" s="32" t="s">
-        <v>481</v>
-      </c>
+      <c r="C152" s="32"/>
       <c r="D152" s="30"/>
       <c r="E152" s="30"/>
       <c r="F152" s="32"/>
@@ -7872,7 +7287,7 @@
       </c>
       <c r="N152" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>06:08</v>
+        <v/>
       </c>
       <c r="O152" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7893,14 +7308,10 @@
       <c r="C153" s="32"/>
       <c r="D153" s="30"/>
       <c r="E153" s="30"/>
-      <c r="F153" s="32" t="s">
-        <v>486</v>
-      </c>
+      <c r="F153" s="32"/>
       <c r="G153" s="30"/>
       <c r="H153" s="30"/>
-      <c r="I153" s="91" t="s">
-        <v>475</v>
-      </c>
+      <c r="I153" s="91"/>
       <c r="J153" s="30"/>
       <c r="K153" s="30"/>
       <c r="L153" s="33" t="s">
@@ -7912,11 +7323,11 @@
       </c>
       <c r="O153" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>07:03</v>
+        <v/>
       </c>
       <c r="P153" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>07:07</v>
+        <v/>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -7929,14 +7340,10 @@
       <c r="C154" s="32"/>
       <c r="D154" s="30"/>
       <c r="E154" s="30"/>
-      <c r="F154" s="32" t="s">
-        <v>436</v>
-      </c>
+      <c r="F154" s="32"/>
       <c r="G154" s="30"/>
       <c r="H154" s="30"/>
-      <c r="I154" s="32" t="s">
-        <v>476</v>
-      </c>
+      <c r="I154" s="32"/>
       <c r="J154" s="30"/>
       <c r="K154" s="30"/>
       <c r="L154" s="33" t="s">
@@ -7948,11 +7355,11 @@
       </c>
       <c r="O154" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>08:38</v>
+        <v/>
       </c>
       <c r="P154" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>08:33</v>
+        <v/>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -7962,9 +7369,7 @@
       <c r="B155" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C155" s="32" t="s">
-        <v>482</v>
-      </c>
+      <c r="C155" s="32"/>
       <c r="D155" s="30"/>
       <c r="E155" s="30"/>
       <c r="F155" s="32"/>
@@ -7978,7 +7383,7 @@
       </c>
       <c r="N155" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>09:37</v>
+        <v/>
       </c>
       <c r="O155" s="97" t="str">
         <f t="shared" si="7"/>
@@ -7999,14 +7404,10 @@
       <c r="C156" s="32"/>
       <c r="D156" s="30"/>
       <c r="E156" s="30"/>
-      <c r="F156" s="32" t="s">
-        <v>487</v>
-      </c>
+      <c r="F156" s="32"/>
       <c r="G156" s="30"/>
       <c r="H156" s="30"/>
-      <c r="I156" s="32" t="s">
-        <v>477</v>
-      </c>
+      <c r="I156" s="32"/>
       <c r="J156" s="30"/>
       <c r="K156" s="30"/>
       <c r="L156" s="33" t="s">
@@ -8018,11 +7419,11 @@
       </c>
       <c r="O156" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>10:03</v>
+        <v/>
       </c>
       <c r="P156" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>10:00</v>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -8035,14 +7436,10 @@
       <c r="C157" s="31"/>
       <c r="D157" s="30"/>
       <c r="E157" s="30"/>
-      <c r="F157" s="32" t="s">
-        <v>453</v>
-      </c>
+      <c r="F157" s="32"/>
       <c r="G157" s="30"/>
       <c r="H157" s="30"/>
-      <c r="I157" s="32" t="s">
-        <v>479</v>
-      </c>
+      <c r="I157" s="32"/>
       <c r="J157" s="30"/>
       <c r="K157" s="30"/>
       <c r="L157" s="33" t="s">
@@ -8054,11 +7451,11 @@
       </c>
       <c r="O157" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>11:37</v>
+        <v/>
       </c>
       <c r="P157" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>11:26</v>
+        <v/>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8068,17 +7465,13 @@
       <c r="B158" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="32" t="s">
-        <v>478</v>
-      </c>
+      <c r="C158" s="32"/>
       <c r="D158" s="30"/>
       <c r="E158" s="30"/>
       <c r="F158" s="32"/>
       <c r="G158" s="30"/>
       <c r="H158" s="30"/>
-      <c r="I158" s="32" t="s">
-        <v>491</v>
-      </c>
+      <c r="I158" s="32"/>
       <c r="J158" s="30"/>
       <c r="K158" s="30"/>
       <c r="L158" s="33" t="s">
@@ -8086,7 +7479,7 @@
       </c>
       <c r="N158" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>12:08</v>
+        <v/>
       </c>
       <c r="O158" s="97" t="str">
         <f t="shared" si="7"/>
@@ -8094,7 +7487,7 @@
       </c>
       <c r="P158" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>12:52</v>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -8107,9 +7500,7 @@
       <c r="C159" s="31"/>
       <c r="D159" s="30"/>
       <c r="E159" s="30"/>
-      <c r="F159" s="32" t="s">
-        <v>488</v>
-      </c>
+      <c r="F159" s="32"/>
       <c r="G159" s="30"/>
       <c r="H159" s="30"/>
       <c r="I159" s="32"/>
@@ -8124,7 +7515,7 @@
       </c>
       <c r="O159" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>13:05</v>
+        <v/>
       </c>
       <c r="P159" s="97" t="str">
         <f t="shared" si="8"/>
@@ -8138,19 +7529,13 @@
       <c r="B160" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="32" t="s">
-        <v>361</v>
-      </c>
+      <c r="C160" s="32"/>
       <c r="D160" s="30"/>
       <c r="E160" s="30"/>
-      <c r="F160" s="32" t="s">
-        <v>489</v>
-      </c>
+      <c r="F160" s="32"/>
       <c r="G160" s="30"/>
       <c r="H160" s="30"/>
-      <c r="I160" s="32" t="s">
-        <v>490</v>
-      </c>
+      <c r="I160" s="32"/>
       <c r="J160" s="30"/>
       <c r="K160" s="30"/>
       <c r="L160" s="33" t="s">
@@ -8158,15 +7543,15 @@
       </c>
       <c r="N160" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>14:42</v>
+        <v/>
       </c>
       <c r="O160" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>14:37</v>
+        <v/>
       </c>
       <c r="P160" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>14:21</v>
+        <v/>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -8182,9 +7567,7 @@
       <c r="F161" s="32"/>
       <c r="G161" s="30"/>
       <c r="H161" s="30"/>
-      <c r="I161" s="91" t="s">
-        <v>480</v>
-      </c>
+      <c r="I161" s="91"/>
       <c r="J161" s="30"/>
       <c r="K161" s="30"/>
       <c r="L161" s="33" t="s">
@@ -8200,7 +7583,7 @@
       </c>
       <c r="P161" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>15:51</v>
+        <v/>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -8213,9 +7596,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="30"/>
       <c r="E162" s="30"/>
-      <c r="F162" s="32" t="s">
-        <v>493</v>
-      </c>
+      <c r="F162" s="32"/>
       <c r="G162" s="30"/>
       <c r="H162" s="30"/>
       <c r="I162" s="32"/>
@@ -8230,7 +7611,7 @@
       </c>
       <c r="O162" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>16:12</v>
+        <v/>
       </c>
       <c r="P162" s="97" t="str">
         <f t="shared" si="8"/>
@@ -8247,14 +7628,10 @@
       <c r="C163" s="32"/>
       <c r="D163" s="30"/>
       <c r="E163" s="30"/>
-      <c r="F163" s="32" t="s">
-        <v>496</v>
-      </c>
+      <c r="F163" s="32"/>
       <c r="G163" s="30"/>
       <c r="H163" s="30"/>
-      <c r="I163" s="32" t="s">
-        <v>494</v>
-      </c>
+      <c r="I163" s="32"/>
       <c r="J163" s="30"/>
       <c r="K163" s="30"/>
       <c r="L163" s="33" t="s">
@@ -8266,11 +7643,11 @@
       </c>
       <c r="O163" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>17:42</v>
+        <v/>
       </c>
       <c r="P163" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>17:16</v>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -8280,17 +7657,13 @@
       <c r="B164" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="32" t="s">
-        <v>501</v>
-      </c>
+      <c r="C164" s="32"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="32"/>
       <c r="G164" s="30"/>
       <c r="H164" s="30"/>
-      <c r="I164" s="32" t="s">
-        <v>495</v>
-      </c>
+      <c r="I164" s="32"/>
       <c r="J164" s="30"/>
       <c r="K164" s="30"/>
       <c r="L164" s="33" t="s">
@@ -8298,7 +7671,7 @@
       </c>
       <c r="N164" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>19:06</v>
+        <v/>
       </c>
       <c r="O164" s="97" t="str">
         <f t="shared" si="7"/>
@@ -8306,7 +7679,7 @@
       </c>
       <c r="P164" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>18:44</v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -8319,9 +7692,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="30"/>
       <c r="E165" s="30"/>
-      <c r="F165" s="32" t="s">
-        <v>468</v>
-      </c>
+      <c r="F165" s="32"/>
       <c r="G165" s="30"/>
       <c r="H165" s="30"/>
       <c r="I165" s="32"/>
@@ -8336,7 +7707,7 @@
       </c>
       <c r="O165" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>19:10</v>
+        <v/>
       </c>
       <c r="P165" s="97" t="str">
         <f t="shared" si="8"/>
@@ -8353,14 +7724,10 @@
       <c r="C166" s="32"/>
       <c r="D166" s="30"/>
       <c r="E166" s="30"/>
-      <c r="F166" s="32" t="s">
-        <v>497</v>
-      </c>
+      <c r="F166" s="32"/>
       <c r="G166" s="30"/>
       <c r="H166" s="30"/>
-      <c r="I166" s="32" t="s">
-        <v>427</v>
-      </c>
+      <c r="I166" s="32"/>
       <c r="J166" s="30"/>
       <c r="K166" s="30"/>
       <c r="L166" s="33" t="s">
@@ -8372,11 +7739,11 @@
       </c>
       <c r="O166" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>20:42</v>
+        <v/>
       </c>
       <c r="P166" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>20:17</v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -8392,9 +7759,7 @@
       <c r="F167" s="32"/>
       <c r="G167" s="30"/>
       <c r="H167" s="30"/>
-      <c r="I167" s="32" t="s">
-        <v>498</v>
-      </c>
+      <c r="I167" s="32"/>
       <c r="J167" s="30"/>
       <c r="K167" s="30"/>
       <c r="L167" s="33" t="s">
@@ -8410,7 +7775,7 @@
       </c>
       <c r="P167" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>21:42</v>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -8420,14 +7785,10 @@
       <c r="B168" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="32" t="s">
-        <v>502</v>
-      </c>
+      <c r="C168" s="32"/>
       <c r="D168" s="30"/>
       <c r="E168" s="30"/>
-      <c r="F168" s="32" t="s">
-        <v>355</v>
-      </c>
+      <c r="F168" s="32"/>
       <c r="G168" s="30"/>
       <c r="H168" s="30"/>
       <c r="I168" s="32"/>
@@ -8438,11 +7799,11 @@
       </c>
       <c r="N168" s="97" t="str">
         <f t="shared" si="6"/>
-        <v>22:27</v>
+        <v/>
       </c>
       <c r="O168" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>22:07</v>
+        <v/>
       </c>
       <c r="P168" s="97" t="str">
         <f t="shared" si="8"/>
@@ -8459,14 +7820,10 @@
       <c r="C169" s="32"/>
       <c r="D169" s="30"/>
       <c r="E169" s="30"/>
-      <c r="F169" s="32" t="s">
-        <v>500</v>
-      </c>
+      <c r="F169" s="32"/>
       <c r="G169" s="30"/>
       <c r="H169" s="30"/>
-      <c r="I169" s="32" t="s">
-        <v>499</v>
-      </c>
+      <c r="I169" s="32"/>
       <c r="J169" s="30"/>
       <c r="K169" s="30"/>
       <c r="L169" s="33" t="s">
@@ -8478,11 +7835,11 @@
       </c>
       <c r="O169" s="97" t="str">
         <f t="shared" si="7"/>
-        <v>23:34</v>
+        <v/>
       </c>
       <c r="P169" s="97" t="str">
         <f t="shared" si="8"/>
-        <v>23:16</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -8498,35 +7855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605CF80A-E247-46D1-ABB8-F545E121DA92}">
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="97"/>
-    <col min="2" max="2" width="9" style="98"/>
-    <col min="3" max="3" width="9" style="97"/>
-    <col min="4" max="4" width="9" style="98"/>
-    <col min="5" max="5" width="9" style="97"/>
-    <col min="6" max="6" width="9" style="98"/>
-    <col min="7" max="16384" width="9" style="97"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8602,7 +7935,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K2" s="23" t="s">
         <v>83</v>
@@ -8643,7 +7976,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>45</v>
@@ -8690,7 +8023,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>44</v>
@@ -8733,7 +8066,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>41</v>
@@ -8858,7 +8191,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>38</v>
@@ -8901,7 +8234,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>37</v>
@@ -8979,7 +8312,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>33</v>
@@ -9026,7 +8359,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>32</v>
@@ -9104,7 +8437,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>29</v>
@@ -9315,7 +8648,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>20</v>
@@ -9354,7 +8687,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>16</v>
@@ -9436,7 +8769,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>12</v>
@@ -9479,7 +8812,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>8</v>
@@ -9565,7 +8898,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K25" s="53" t="s">
         <v>5</v>
@@ -9647,7 +8980,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>45</v>
@@ -9772,7 +9105,7 @@
         <v>6</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>40</v>
@@ -9819,7 +9152,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>39</v>
@@ -9897,7 +9230,7 @@
         <v>17</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>37</v>
@@ -10022,7 +9355,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>32</v>
@@ -10147,7 +9480,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>28</v>
@@ -10190,7 +9523,7 @@
         <v>6</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>27</v>
@@ -10229,7 +9562,7 @@
         <v>17</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>24</v>
@@ -10315,7 +9648,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>20</v>
@@ -10397,7 +9730,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>13</v>
@@ -10604,7 +9937,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K50" s="29" t="s">
         <v>46</v>
@@ -10651,7 +9984,7 @@
         <v>17</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K51" s="29" t="s">
         <v>45</v>
@@ -10729,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K53" s="29" t="s">
         <v>41</v>
@@ -10772,7 +10105,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K54" s="29" t="s">
         <v>40</v>
@@ -11040,7 +10373,7 @@
         <v>17</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K60" s="29" t="s">
         <v>32</v>
@@ -11122,7 +10455,7 @@
         <v>17</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K62" s="29" t="s">
         <v>29</v>
@@ -11294,7 +10627,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K66" s="29" t="s">
         <v>21</v>
@@ -11415,7 +10748,7 @@
         <v>6</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K69" s="29" t="s">
         <v>13</v>
@@ -11540,7 +10873,7 @@
         <v>17</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K72" s="29" t="s">
         <v>7</v>
@@ -11665,7 +10998,7 @@
         <v>17</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>45</v>
@@ -11743,7 +11076,7 @@
         <v>6</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>41</v>
@@ -11772,7 +11105,7 @@
         <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>509</v>
+        <v>366</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>200</v>
@@ -11790,7 +11123,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>40</v>
@@ -11829,7 +11162,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>39</v>
@@ -11915,7 +11248,7 @@
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>37</v>
@@ -11954,7 +11287,7 @@
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>36</v>
@@ -12036,7 +11369,7 @@
         <v>17</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>32</v>
@@ -12062,10 +11395,10 @@
         <v>144</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>262</v>
@@ -12157,7 +11490,7 @@
         <v>17</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>28</v>
@@ -12204,7 +11537,7 @@
         <v>17</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>27</v>
@@ -12286,7 +11619,7 @@
         <v>17</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>21</v>
@@ -12329,7 +11662,7 @@
         <v>17</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>20</v>
@@ -12497,7 +11830,7 @@
         <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>8</v>
@@ -12579,7 +11912,7 @@
         <v>17</v>
       </c>
       <c r="J97" s="69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K97" s="71" t="s">
         <v>5</v>
@@ -12622,7 +11955,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K98" s="38" t="s">
         <v>46</v>
@@ -12665,7 +11998,7 @@
         <v>17</v>
       </c>
       <c r="J99" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K99" s="38" t="s">
         <v>45</v>
@@ -12747,7 +12080,7 @@
         <v>17</v>
       </c>
       <c r="J101" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K101" s="38" t="s">
         <v>41</v>
@@ -12872,7 +12205,7 @@
         <v>17</v>
       </c>
       <c r="J104" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K104" s="38" t="s">
         <v>38</v>
@@ -12997,7 +12330,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K107" s="38" t="s">
         <v>33</v>
@@ -13040,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K108" s="38" t="s">
         <v>32</v>
@@ -13118,7 +12451,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K110" s="38" t="s">
         <v>29</v>
@@ -13208,7 +12541,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K112" s="38" t="s">
         <v>27</v>
@@ -13290,7 +12623,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K114" s="38" t="s">
         <v>21</v>
@@ -13454,7 +12787,7 @@
         <v>17</v>
       </c>
       <c r="J118" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K118" s="38" t="s">
         <v>12</v>
@@ -13579,7 +12912,7 @@
         <v>17</v>
       </c>
       <c r="J121" s="75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K121" s="78" t="s">
         <v>5</v>
@@ -13708,7 +13041,7 @@
         <v>17</v>
       </c>
       <c r="J124" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K124" s="43" t="s">
         <v>44</v>
@@ -13747,7 +13080,7 @@
         <v>17</v>
       </c>
       <c r="J125" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K125" s="43" t="s">
         <v>41</v>
@@ -13776,7 +13109,7 @@
         <v>53</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="E126" s="42" t="s">
         <v>252</v>
@@ -13833,7 +13166,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K127" s="43" t="s">
         <v>39</v>
@@ -13872,7 +13205,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K128" s="43" t="s">
         <v>38</v>
@@ -13997,7 +13330,7 @@
         <v>6</v>
       </c>
       <c r="J131" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K131" s="43" t="s">
         <v>33</v>
@@ -14122,7 +13455,7 @@
         <v>6</v>
       </c>
       <c r="J134" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K134" s="43" t="s">
         <v>29</v>
@@ -14204,7 +13537,7 @@
         <v>17</v>
       </c>
       <c r="J136" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K136" s="43" t="s">
         <v>27</v>
@@ -14290,7 +13623,7 @@
         <v>17</v>
       </c>
       <c r="J138" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K138" s="43" t="s">
         <v>21</v>
@@ -14329,7 +13662,7 @@
         <v>6</v>
       </c>
       <c r="J139" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K139" s="43" t="s">
         <v>20</v>
@@ -14415,7 +13748,7 @@
         <v>6</v>
       </c>
       <c r="J141" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K141" s="43" t="s">
         <v>13</v>
@@ -14454,7 +13787,7 @@
         <v>17</v>
       </c>
       <c r="J142" s="40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K142" s="43" t="s">
         <v>12</v>
@@ -14579,7 +13912,7 @@
         <v>6</v>
       </c>
       <c r="J145" s="82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K145" s="85" t="s">
         <v>5</v>
@@ -14657,7 +13990,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K147" s="33" t="s">
         <v>45</v>
@@ -14704,7 +14037,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K148" s="33" t="s">
         <v>44</v>
@@ -14778,7 +14111,7 @@
         <v>17</v>
       </c>
       <c r="J150" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K150" s="33" t="s">
         <v>40</v>
@@ -14899,7 +14232,7 @@
         <v>6</v>
       </c>
       <c r="J153" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K153" s="33" t="s">
         <v>37</v>
@@ -14940,7 +14273,7 @@
         <v>6</v>
       </c>
       <c r="J154" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K154" s="33" t="s">
         <v>36</v>
@@ -15020,7 +14353,7 @@
         <v>6</v>
       </c>
       <c r="J156" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K156" s="33" t="s">
         <v>32</v>
@@ -15141,7 +14474,7 @@
         <v>17</v>
       </c>
       <c r="J159" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K159" s="33" t="s">
         <v>28</v>
@@ -15188,7 +14521,7 @@
         <v>17</v>
       </c>
       <c r="J160" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K160" s="33" t="s">
         <v>27</v>
@@ -15266,7 +14599,7 @@
         <v>6</v>
       </c>
       <c r="J162" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K162" s="33" t="s">
         <v>21</v>
@@ -15309,7 +14642,7 @@
         <v>17</v>
       </c>
       <c r="J163" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K163" s="33" t="s">
         <v>20</v>
@@ -15383,7 +14716,7 @@
         <v>6</v>
       </c>
       <c r="J165" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K165" s="33" t="s">
         <v>13</v>
@@ -15508,7 +14841,7 @@
         <v>6</v>
       </c>
       <c r="J168" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K168" s="33" t="s">
         <v>7</v>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572BE97C-4D18-4BF8-A315-D1A71696162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988661D-4385-474A-94DC-340A421DEC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57705" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26655" yWindow="16995" windowWidth="18615" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="484">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>戒狼村 / 悪鬼都市</t>
   </si>
   <si>
     <t>灰狼村 / 鬼都</t>
@@ -1137,6 +1134,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>22:07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>オオウスバ</t>
   </si>
   <si>
@@ -1147,6 +1148,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>06:55</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>02:26</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1163,10 +1168,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>13:04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>00:59</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>07:03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:37</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>黑森林 / 灰狼村</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1213,10 +1234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>土門客棧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>敵萬夫</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1249,8 +1266,325 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>???</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18:06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>萬年殭屍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23:53</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02:30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03:52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土門客棧 / 鬼都</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黑森林 / 豬豬農場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鬼都 / 叛軍駐地</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤村 / 叛軍駐地</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01:27</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05:37</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08:16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15:19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18:51</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土門客棧 / 悲鳴村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04:04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05:36</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08:37</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10:09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11:36</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:36</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16:10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:39</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05:26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>08:27</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>09:58</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13:03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:43</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14:39</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:41</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23:40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:35</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:43</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>22:14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒影林 / 巨岩の海岸</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡門旅館 / 戒狼村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戒狼村 / 悪鬼都市</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡門旅館 / 悪鬼都市</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤独の村 / 戒狼村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武運村 / 悪鬼都市</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡門旅館 / 武運村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩の海岸 / 戒狼村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒影林 / 戒狼村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩の海岸 / 武運村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戒狼村 / 海岸兵舎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒影林 /  海岸旅館</t>
+    <rPh sb="9" eb="11">
+      <t>リョカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤独の村 / 北方警戒所</t>
+    <rPh sb="7" eb="9">
+      <t>ホッポウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪鬼都市 / 北方警戒所</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩の海岸 / 渡門旅館</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩海岸 / 土門客棧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巨岩海岸 / 悲鳴村</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01:10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤村 / 土門客棧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04:51</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孤独の村 / 渡門旅館</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒影林 /  戒狼村</t>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオカミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01:16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05:33</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01:03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02:29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04:02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07:49</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>灰狼村 / 豬豬農場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>14:3</t>
+      <t>戒狼村</t>
     </r>
     <r>
       <rPr>
@@ -1260,13 +1594,31 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>9</t>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海岸旅館</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>11:51</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15:51</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>10:0</t>
+      <t xml:space="preserve">孤村 </t>
     </r>
     <r>
       <rPr>
@@ -1276,133 +1628,84 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>9</t>
+      <t>/ 豬豬農場</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>???</t>
+    <t>孤独の村 / 海岸旅館</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>18:06</t>
+    <t>06:58</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>22:03</t>
-    </r>
+    <t>08:33</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>19:15</t>
-    </r>
+    <t>10:08</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>20:41</t>
-    </r>
+    <t>11:40</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>22:25</t>
-    </r>
+    <t>13:13</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>イノシシ</t>
+    <t>14:41</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>16:08</t>
+    <t>16:11</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>19:32</t>
+    <t>07:01</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>21:00</t>
+    <t>08:34</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>萬年殭屍</t>
+    <t>10:04</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>巨岩</t>
+    <t>11:30</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>22:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>12</t>
-    </r>
+    <t>13:00</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>23:53</t>
+    <t>14:33</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>17:31</t>
-    </r>
+    <t>16:02</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>02:30</t>
+    <t>19:10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>03:52</t>
+    <t>土門客棧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渡門旅館</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20:32</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1469,18 +1772,18 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1603,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1891,26 +2194,30 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2221,8 +2528,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2249,43 +2556,43 @@
     <row r="1" spans="1:16">
       <c r="A1" s="8"/>
       <c r="B1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="3"/>
@@ -2297,7 +2604,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="97" t="str">
         <f>IF($C2&lt;&gt;"",TEXT($C2,"HH:MM"),"")</f>
@@ -2314,10 +2621,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="3"/>
@@ -2329,7 +2636,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="97" t="str">
         <f t="shared" ref="N3:N66" si="0">IF($C3&lt;&gt;"",TEXT($C3,"HH:MM"),"")</f>
@@ -2346,10 +2653,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="24"/>
@@ -2361,7 +2668,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="97" t="str">
         <f t="shared" si="0"/>
@@ -2381,7 +2688,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="3"/>
@@ -2413,7 +2720,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="3"/>
@@ -2445,7 +2752,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="3"/>
@@ -2477,7 +2784,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="3"/>
@@ -2509,7 +2816,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="3"/>
@@ -2541,7 +2848,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="3"/>
@@ -2573,7 +2880,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="3"/>
@@ -2605,7 +2912,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="3"/>
@@ -2637,7 +2944,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="3"/>
@@ -2669,7 +2976,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="3"/>
@@ -2701,7 +3008,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="3"/>
@@ -2733,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="3"/>
@@ -2765,7 +3072,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="3"/>
@@ -2797,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="3"/>
@@ -2829,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="3"/>
@@ -2861,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="3"/>
@@ -2893,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="3"/>
@@ -2925,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="3"/>
@@ -2957,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="3"/>
@@ -2989,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="3"/>
@@ -3021,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="50"/>
@@ -3050,10 +3357,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="47"/>
@@ -3065,7 +3372,7 @@
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
       <c r="L26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3082,10 +3389,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="4"/>
@@ -3097,7 +3404,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N27" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3114,10 +3421,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
@@ -3129,7 +3436,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N28" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3149,7 +3456,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="4"/>
@@ -3181,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="4"/>
@@ -3213,7 +3520,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="4"/>
@@ -3245,7 +3552,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="4"/>
@@ -3277,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="4"/>
@@ -3309,7 +3616,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="4"/>
@@ -3341,7 +3648,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="4"/>
@@ -3373,7 +3680,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="4"/>
@@ -3405,7 +3712,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="4"/>
@@ -3437,7 +3744,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="4"/>
@@ -3469,7 +3776,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="4"/>
@@ -3501,7 +3808,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="4"/>
@@ -3533,7 +3840,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="4"/>
@@ -3565,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="4"/>
@@ -3597,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="4"/>
@@ -3629,7 +3936,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="4"/>
@@ -3661,7 +3968,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="4"/>
@@ -3693,7 +4000,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="4"/>
@@ -3725,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="4"/>
@@ -3757,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="4"/>
@@ -3789,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="57"/>
@@ -3818,10 +4125,10 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="54"/>
@@ -3833,7 +4140,7 @@
       <c r="J50" s="54"/>
       <c r="K50" s="54"/>
       <c r="L50" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N50" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3850,10 +4157,10 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="6"/>
@@ -3865,7 +4172,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3882,10 +4189,10 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="86"/>
       <c r="D52" s="6"/>
@@ -3897,7 +4204,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N52" s="97" t="str">
         <f t="shared" si="0"/>
@@ -3917,7 +4224,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="6"/>
@@ -3949,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="6"/>
@@ -3981,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="6"/>
@@ -4013,34 +4320,34 @@
         <v>38</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L56" s="29" t="s">
         <v>38</v>
@@ -4063,34 +4370,34 @@
         <v>37</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>37</v>
@@ -4113,34 +4420,34 @@
         <v>36</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>36</v>
@@ -4163,27 +4470,27 @@
         <v>33</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="29" t="s">
@@ -4207,22 +4514,22 @@
         <v>32</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="9"/>
@@ -4249,25 +4556,29 @@
         <v>30</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H61" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I61" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K61" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="L61" s="29" t="s">
         <v>30</v>
       </c>
@@ -4289,7 +4600,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="6"/>
@@ -4298,12 +4609,14 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K62" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="L62" s="29" t="s">
         <v>29</v>
       </c>
@@ -4325,25 +4638,29 @@
         <v>28</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I63" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K63" s="6"/>
+        <v>382</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="L63" s="29" t="s">
         <v>28</v>
       </c>
@@ -4365,22 +4682,26 @@
         <v>27</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="F64" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -4405,7 +4726,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="6"/>
@@ -4414,12 +4735,14 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="86" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K65" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="L65" s="29" t="s">
         <v>24</v>
       </c>
@@ -4441,13 +4764,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>23</v>
@@ -4456,12 +4779,14 @@
         <v>22</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="K66" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="L66" s="29" t="s">
         <v>21</v>
       </c>
@@ -4483,18 +4808,20 @@
         <v>20</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="9" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H67" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I67" s="86"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -4519,25 +4846,29 @@
         <v>16</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>396</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="F68" s="9"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="101" t="s">
-        <v>386</v>
+      <c r="I68" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="K68" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="L68" s="29" t="s">
         <v>16</v>
       </c>
@@ -4559,25 +4890,29 @@
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="9" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H69" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I69" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="K69" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="L69" s="29" t="s">
         <v>13</v>
       </c>
@@ -4599,13 +4934,13 @@
         <v>12</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="9" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>23</v>
@@ -4637,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="6"/>
@@ -4646,12 +4981,14 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="K71" s="6"/>
+        <v>383</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="L71" s="29" t="s">
         <v>8</v>
       </c>
@@ -4673,30 +5010,34 @@
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D72" s="100" t="s">
-        <v>396</v>
-      </c>
-      <c r="E72" s="6"/>
+        <v>425</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="F72" s="9" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H72" s="6"/>
+        <v>392</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="I72" s="9" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="L72" s="29" t="s">
         <v>7</v>
@@ -4719,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="87"/>
       <c r="D73" s="63"/>
@@ -4728,12 +5069,14 @@
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="87" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J73" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K73" s="63"/>
+      <c r="K73" s="63" t="s">
+        <v>9</v>
+      </c>
       <c r="L73" s="65" t="s">
         <v>5</v>
       </c>
@@ -4752,26 +5095,28 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="62"/>
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
       <c r="F74" s="62" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G74" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H74" s="61"/>
+      <c r="H74" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="I74" s="62"/>
       <c r="J74" s="61"/>
       <c r="K74" s="61"/>
       <c r="L74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N74" s="97" t="str">
         <f t="shared" si="3"/>
@@ -4788,14 +5133,20 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="F75" s="18"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4805,13 +5156,15 @@
       <c r="J75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="L75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N75" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01:27</v>
       </c>
       <c r="O75" s="97" t="str">
         <f t="shared" si="4"/>
@@ -4824,30 +5177,34 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I76" s="88" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="L76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N76" s="97" t="str">
         <f t="shared" si="3"/>
@@ -4867,7 +5224,7 @@
         <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="1"/>
@@ -4876,12 +5233,14 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="L77" s="2" t="s">
         <v>41</v>
       </c>
@@ -4903,14 +5262,20 @@
         <v>40</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="F78" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I78" s="18"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4923,7 +5288,7 @@
       </c>
       <c r="O78" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>04:04</v>
       </c>
       <c r="P78" s="97" t="str">
         <f t="shared" si="5"/>
@@ -4935,31 +5300,49 @@
         <v>39</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>05:37</v>
       </c>
       <c r="O79" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>05:36</v>
       </c>
       <c r="P79" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>05:26</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4967,7 +5350,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="1"/>
@@ -4975,9 +5358,15 @@
       <c r="F80" s="18"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="I80" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L80" s="2" t="s">
         <v>38</v>
       </c>
@@ -4991,7 +5380,7 @@
       </c>
       <c r="P80" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>06:55</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4999,14 +5388,20 @@
         <v>37</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -5019,7 +5414,7 @@
       </c>
       <c r="O81" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>07:03</v>
       </c>
       <c r="P81" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5031,31 +5426,49 @@
         <v>36</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L82" s="2" t="s">
         <v>36</v>
       </c>
       <c r="N82" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>08:16</v>
       </c>
       <c r="O82" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08:37</v>
       </c>
       <c r="P82" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>08:27</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5063,7 +5476,7 @@
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="1"/>
@@ -5071,9 +5484,15 @@
       <c r="F83" s="18"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="I83" s="88" t="s">
+        <v>418</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L83" s="2" t="s">
         <v>33</v>
       </c>
@@ -5087,7 +5506,7 @@
       </c>
       <c r="P83" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>09:58</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5095,14 +5514,20 @@
         <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="F84" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -5115,7 +5540,7 @@
       </c>
       <c r="O84" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>10:09</v>
       </c>
       <c r="P84" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5127,31 +5552,49 @@
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="L85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N85" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11:29</v>
       </c>
       <c r="O85" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>11:36</v>
       </c>
       <c r="P85" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11:33</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5159,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="1"/>
@@ -5167,7 +5610,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="19"/>
+      <c r="I86" s="88"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="2" t="s">
@@ -5191,17 +5634,29 @@
         <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="F87" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L87" s="2" t="s">
         <v>28</v>
       </c>
@@ -5211,11 +5666,11 @@
       </c>
       <c r="O87" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13:04</v>
       </c>
       <c r="P87" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13:03</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5223,17 +5678,29 @@
         <v>27</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="F88" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L88" s="2" t="s">
         <v>27</v>
       </c>
@@ -5243,11 +5710,11 @@
       </c>
       <c r="O88" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>14:36</v>
       </c>
       <c r="P88" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14:37</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5255,11 +5722,17 @@
         <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="F89" s="18"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -5271,7 +5744,7 @@
       </c>
       <c r="N89" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15:19</v>
       </c>
       <c r="O89" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5287,17 +5760,29 @@
         <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" s="18"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="F90" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="L90" s="2" t="s">
         <v>21</v>
       </c>
@@ -5307,11 +5792,11 @@
       </c>
       <c r="O90" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>16:10</v>
       </c>
       <c r="P90" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>16:10</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5319,17 +5804,29 @@
         <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="F91" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L91" s="2" t="s">
         <v>20</v>
       </c>
@@ -5339,11 +5836,11 @@
       </c>
       <c r="O91" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>17:39</v>
       </c>
       <c r="P91" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>17:43</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5351,11 +5848,17 @@
         <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="F92" s="18"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5367,7 +5870,7 @@
       </c>
       <c r="N92" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18:51</v>
       </c>
       <c r="O92" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5383,17 +5886,29 @@
         <v>13</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="F93" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="L93" s="2" t="s">
         <v>13</v>
       </c>
@@ -5403,11 +5918,11 @@
       </c>
       <c r="O93" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>19:08</v>
       </c>
       <c r="P93" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>19:08</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5415,17 +5930,29 @@
         <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="F94" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="L94" s="2" t="s">
         <v>12</v>
       </c>
@@ -5435,11 +5962,11 @@
       </c>
       <c r="O94" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>20:43</v>
       </c>
       <c r="P94" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>20:35</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5447,7 +5974,7 @@
         <v>8</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="1"/>
@@ -5479,31 +6006,49 @@
         <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N96" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>22:20</v>
       </c>
       <c r="O96" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>22:14</v>
       </c>
       <c r="P96" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>22:07</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16.5" thickBot="1">
@@ -5511,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C97" s="70"/>
       <c r="D97" s="69"/>
@@ -5519,9 +6064,15 @@
       <c r="F97" s="70"/>
       <c r="G97" s="69"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="69"/>
+      <c r="I97" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="J97" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="69" t="s">
+        <v>9</v>
+      </c>
       <c r="L97" s="71" t="s">
         <v>5</v>
       </c>
@@ -5535,17 +6086,17 @@
       </c>
       <c r="P97" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>23:40</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" s="67"/>
+        <v>54</v>
+      </c>
+      <c r="C98" s="68"/>
       <c r="D98" s="66"/>
       <c r="E98" s="66"/>
       <c r="F98" s="68"/>
@@ -5555,7 +6106,7 @@
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
       <c r="L98" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N98" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5572,54 +6123,84 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C99" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="E99" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="J99" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N99" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>01:10</v>
       </c>
       <c r="O99" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>01:16</v>
       </c>
       <c r="P99" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>01:03</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
+      <c r="F100" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J100" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="35" t="s">
+        <v>355</v>
+      </c>
       <c r="L100" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N100" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5627,11 +6208,11 @@
       </c>
       <c r="O100" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>02:30</v>
       </c>
       <c r="P100" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>02:29</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5639,7 +6220,7 @@
         <v>41</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="35"/>
@@ -5671,31 +6252,49 @@
         <v>40</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D102" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="G102" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="J102" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K102" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L102" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N102" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>04:51</v>
       </c>
       <c r="O102" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>04:04</v>
       </c>
       <c r="P102" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>04:02</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5703,17 +6302,29 @@
         <v>39</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" s="36"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
+      <c r="F103" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="J103" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L103" s="38" t="s">
         <v>39</v>
       </c>
@@ -5723,11 +6334,11 @@
       </c>
       <c r="O103" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>05:33</v>
       </c>
       <c r="P103" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>05:33</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5735,14 +6346,20 @@
         <v>38</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
+      <c r="F104" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="G104" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>34</v>
+      </c>
       <c r="I104" s="37"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
@@ -5755,7 +6372,7 @@
       </c>
       <c r="O104" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>06:58</v>
       </c>
       <c r="P104" s="97" t="str">
         <f t="shared" si="5"/>
@@ -5767,23 +6384,35 @@
         <v>37</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105" s="100" t="s">
+        <v>460</v>
+      </c>
+      <c r="E105" s="35" t="s">
+        <v>461</v>
+      </c>
       <c r="F105" s="37"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
+      <c r="I105" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J105" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="35" t="s">
+        <v>355</v>
+      </c>
       <c r="L105" s="38" t="s">
         <v>37</v>
       </c>
       <c r="N105" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>07:49</v>
       </c>
       <c r="O105" s="97" t="str">
         <f t="shared" si="4"/>
@@ -5791,7 +6420,7 @@
       </c>
       <c r="P105" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>07:01</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5799,17 +6428,29 @@
         <v>36</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
+      <c r="F106" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="G106" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="J106" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L106" s="38" t="s">
         <v>36</v>
       </c>
@@ -5819,11 +6460,11 @@
       </c>
       <c r="O106" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>08:33</v>
       </c>
       <c r="P106" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>08:34</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5831,7 +6472,7 @@
         <v>33</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="35"/>
@@ -5863,15 +6504,23 @@
         <v>32</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="37"/>
+      <c r="F108" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="J108" s="35"/>
       <c r="K108" s="35"/>
       <c r="L108" s="38" t="s">
@@ -5883,11 +6532,11 @@
       </c>
       <c r="O108" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>10:08</v>
       </c>
       <c r="P108" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10:04</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5895,31 +6544,49 @@
         <v>30</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="J109" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="K109" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L109" s="38" t="s">
         <v>30</v>
       </c>
       <c r="N109" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>11:51</v>
       </c>
       <c r="O109" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>11:40</v>
       </c>
       <c r="P109" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11:30</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5927,7 +6594,7 @@
         <v>29</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="35"/>
@@ -5959,17 +6626,29 @@
         <v>28</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
+      <c r="F111" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K111" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="L111" s="38" t="s">
         <v>28</v>
       </c>
@@ -5979,11 +6658,11 @@
       </c>
       <c r="O111" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13:13</v>
       </c>
       <c r="P111" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13:00</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5991,17 +6670,29 @@
         <v>27</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
+      <c r="F112" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="J112" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K112" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="L112" s="38" t="s">
         <v>27</v>
       </c>
@@ -6011,11 +6702,11 @@
       </c>
       <c r="O112" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>14:41</v>
       </c>
       <c r="P112" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14:33</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6023,11 +6714,17 @@
         <v>24</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D113" s="100" t="s">
+        <v>448</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>441</v>
+      </c>
       <c r="F113" s="37"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
@@ -6039,7 +6736,7 @@
       </c>
       <c r="N113" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15:51</v>
       </c>
       <c r="O113" s="97" t="str">
         <f t="shared" si="4"/>
@@ -6055,17 +6752,29 @@
         <v>21</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
+      <c r="F114" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="J114" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K114" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L114" s="38" t="s">
         <v>21</v>
       </c>
@@ -6075,11 +6784,11 @@
       </c>
       <c r="O114" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>16:11</v>
       </c>
       <c r="P114" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>16:02</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6087,7 +6796,7 @@
         <v>20</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="35"/>
@@ -6119,7 +6828,7 @@
         <v>16</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="36"/>
       <c r="D116" s="35"/>
@@ -6151,11 +6860,17 @@
         <v>13</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E117" s="35" t="s">
+        <v>482</v>
+      </c>
       <c r="F117" s="37"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
@@ -6167,7 +6882,7 @@
       </c>
       <c r="N117" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>19:10</v>
       </c>
       <c r="O117" s="97" t="str">
         <f t="shared" si="4"/>
@@ -6183,7 +6898,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="35"/>
@@ -6191,9 +6906,15 @@
       <c r="F118" s="37"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35"/>
+      <c r="I118" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="J118" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="35" t="s">
+        <v>355</v>
+      </c>
       <c r="L118" s="38" t="s">
         <v>12</v>
       </c>
@@ -6207,7 +6928,7 @@
       </c>
       <c r="P118" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>20:32</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6215,7 +6936,7 @@
         <v>8</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" s="36"/>
       <c r="D119" s="35"/>
@@ -6247,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="35"/>
@@ -6279,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="B121" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" s="77"/>
       <c r="D121" s="75"/>
@@ -6308,10 +7029,10 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="72" t="s">
         <v>46</v>
-      </c>
-      <c r="B122" s="72" t="s">
-        <v>47</v>
       </c>
       <c r="C122" s="74"/>
       <c r="D122" s="72"/>
@@ -6323,7 +7044,7 @@
       <c r="J122" s="72"/>
       <c r="K122" s="72"/>
       <c r="L122" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N122" s="97" t="str">
         <f t="shared" si="3"/>
@@ -6340,10 +7061,10 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C123" s="42"/>
       <c r="D123" s="40"/>
@@ -6355,7 +7076,7 @@
       <c r="J123" s="40"/>
       <c r="K123" s="40"/>
       <c r="L123" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N123" s="97" t="str">
         <f t="shared" si="3"/>
@@ -6372,10 +7093,10 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="41"/>
       <c r="D124" s="40"/>
@@ -6387,7 +7108,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="40"/>
       <c r="L124" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N124" s="97" t="str">
         <f t="shared" si="3"/>
@@ -6407,7 +7128,7 @@
         <v>41</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="42"/>
       <c r="D125" s="40"/>
@@ -6439,7 +7160,7 @@
         <v>40</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="42"/>
       <c r="D126" s="40"/>
@@ -6471,7 +7192,7 @@
         <v>39</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C127" s="42"/>
       <c r="D127" s="40"/>
@@ -6503,7 +7224,7 @@
         <v>38</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C128" s="44"/>
       <c r="D128" s="40"/>
@@ -6535,7 +7256,7 @@
         <v>37</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="41"/>
       <c r="D129" s="40"/>
@@ -6567,7 +7288,7 @@
         <v>36</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130" s="42"/>
       <c r="D130" s="40"/>
@@ -6599,7 +7320,7 @@
         <v>33</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C131" s="42"/>
       <c r="D131" s="40"/>
@@ -6631,7 +7352,7 @@
         <v>32</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C132" s="41"/>
       <c r="D132" s="40"/>
@@ -6663,7 +7384,7 @@
         <v>30</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" s="41"/>
       <c r="D133" s="40"/>
@@ -6695,7 +7416,7 @@
         <v>29</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C134" s="42"/>
       <c r="D134" s="40"/>
@@ -6727,7 +7448,7 @@
         <v>28</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" s="41"/>
       <c r="D135" s="40"/>
@@ -6759,7 +7480,7 @@
         <v>27</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C136" s="42"/>
       <c r="D136" s="40"/>
@@ -6791,7 +7512,7 @@
         <v>24</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C137" s="42"/>
       <c r="D137" s="40"/>
@@ -6823,7 +7544,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C138" s="41"/>
       <c r="D138" s="40"/>
@@ -6855,7 +7576,7 @@
         <v>20</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C139" s="42"/>
       <c r="D139" s="40"/>
@@ -6887,7 +7608,7 @@
         <v>16</v>
       </c>
       <c r="B140" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C140" s="42"/>
       <c r="D140" s="40"/>
@@ -6919,7 +7640,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C141" s="92"/>
       <c r="D141" s="93"/>
@@ -6951,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C142" s="42"/>
       <c r="D142" s="40"/>
@@ -6983,7 +7704,7 @@
         <v>8</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C143" s="42"/>
       <c r="D143" s="40"/>
@@ -7015,7 +7736,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C144" s="42"/>
       <c r="D144" s="40"/>
@@ -7047,7 +7768,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C145" s="83"/>
       <c r="D145" s="82"/>
@@ -7076,7 +7797,7 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B146" s="79" t="s">
         <v>4</v>
@@ -7091,7 +7812,7 @@
       <c r="J146" s="79"/>
       <c r="K146" s="79"/>
       <c r="L146" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N146" s="97" t="str">
         <f t="shared" si="6"/>
@@ -7108,7 +7829,7 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>4</v>
@@ -7123,7 +7844,7 @@
       <c r="J147" s="30"/>
       <c r="K147" s="30"/>
       <c r="L147" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N147" s="97" t="str">
         <f t="shared" si="6"/>
@@ -7140,7 +7861,7 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>4</v>
@@ -7155,7 +7876,7 @@
       <c r="J148" s="30"/>
       <c r="K148" s="30"/>
       <c r="L148" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N148" s="97" t="str">
         <f t="shared" si="6"/>
@@ -7844,9 +8565,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D1:E1048576 G1:H1048576 J1:K1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="例行維護中">
+  <conditionalFormatting sqref="G1:G1048576 J1:J1048576 D1:D1048576">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576 K1:K1048576 E1:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="定期メンテナンス中">
+      <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7858,8 +8584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7881,46 +8607,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -7929,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
@@ -7938,7 +8664,7 @@
         <v>355</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="str">
         <f>IF($B2&lt;&gt;"",TEXT($B2,"HH:MM"),"")</f>
@@ -7955,13 +8681,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -7970,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
@@ -7979,7 +8705,7 @@
         <v>355</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="0">IF($B3&lt;&gt;"",TEXT($B3,"HH:MM"),"")</f>
@@ -7996,19 +8722,19 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
@@ -8017,7 +8743,7 @@
         <v>34</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
@@ -8026,7 +8752,7 @@
         <v>354</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -8043,15 +8769,15 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>35</v>
@@ -8060,7 +8786,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>17</v>
@@ -8086,15 +8812,15 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>35</v>
@@ -8103,7 +8829,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -8125,15 +8851,15 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
@@ -8142,7 +8868,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -8168,24 +8894,24 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>17</v>
@@ -8211,15 +8937,15 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>23</v>
@@ -8228,7 +8954,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>6</v>
@@ -8254,15 +8980,15 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>15</v>
@@ -8271,7 +8997,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -8293,20 +9019,20 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>17</v>
@@ -8332,19 +9058,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>1</v>
@@ -8353,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>6</v>
@@ -8379,15 +9105,15 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1</v>
@@ -8396,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -8418,20 +9144,20 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>17</v>
@@ -8457,19 +9183,19 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>1</v>
@@ -8478,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -8504,15 +9230,15 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>1</v>
@@ -8521,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -8543,20 +9269,20 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
@@ -8582,19 +9308,19 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
@@ -8603,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -8625,15 +9351,15 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
@@ -8642,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>17</v>
@@ -8668,20 +9394,20 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>17</v>
@@ -8707,19 +9433,19 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>15</v>
@@ -8728,7 +9454,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -8750,20 +9476,20 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>6</v>
@@ -8789,15 +9515,15 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>15</v>
@@ -8806,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>6</v>
@@ -8832,19 +9558,19 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
@@ -8853,7 +9579,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -8875,15 +9601,15 @@
     </row>
     <row r="25" spans="1:15" ht="19.5" thickBot="1">
       <c r="A25" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
       <c r="E25" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>1</v>
@@ -8892,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>17</v>
@@ -8918,20 +9644,20 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
       <c r="E26" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="H26" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="47" t="s">
         <v>10</v>
@@ -8940,7 +9666,7 @@
         <v>9</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
@@ -8957,15 +9683,15 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>35</v>
@@ -8974,7 +9700,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>17</v>
@@ -8983,7 +9709,7 @@
         <v>355</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
@@ -9000,19 +9726,19 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>23</v>
@@ -9021,7 +9747,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>10</v>
@@ -9030,7 +9756,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
@@ -9047,20 +9773,20 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9082,15 +9808,15 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1</v>
@@ -9099,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>6</v>
@@ -9125,19 +9851,19 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>1</v>
@@ -9146,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>17</v>
@@ -9172,20 +9898,20 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9207,15 +9933,15 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>35</v>
@@ -9224,7 +9950,7 @@
         <v>34</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>17</v>
@@ -9250,15 +9976,15 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>1</v>
@@ -9267,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>10</v>
@@ -9293,24 +10019,24 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9332,15 +10058,15 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>23</v>
@@ -9349,7 +10075,7 @@
         <v>22</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>6</v>
@@ -9375,15 +10101,15 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>35</v>
@@ -9392,7 +10118,7 @@
         <v>34</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>10</v>
@@ -9418,24 +10144,24 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -9457,15 +10183,15 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>23</v>
@@ -9474,7 +10200,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>6</v>
@@ -9500,15 +10226,15 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>1</v>
@@ -9517,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>6</v>
@@ -9543,20 +10269,20 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>17</v>
@@ -9582,19 +10308,19 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>15</v>
@@ -9603,7 +10329,7 @@
         <v>14</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -9625,15 +10351,15 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>23</v>
@@ -9642,7 +10368,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>6</v>
@@ -9668,24 +10394,24 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -9707,15 +10433,15 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>35</v>
@@ -9724,7 +10450,7 @@
         <v>34</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>6</v>
@@ -9750,15 +10476,15 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>1</v>
@@ -9767,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>10</v>
@@ -9793,24 +10519,24 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>10</v>
@@ -9836,15 +10562,15 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>35</v>
@@ -9853,7 +10579,7 @@
         <v>34</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -9875,15 +10601,15 @@
     </row>
     <row r="49" spans="1:15" ht="19.5" thickBot="1">
       <c r="A49" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
       <c r="E49" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="57" t="s">
         <v>15</v>
@@ -9892,7 +10618,7 @@
         <v>14</v>
       </c>
       <c r="H49" s="59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I49" s="57" t="s">
         <v>10</v>
@@ -9918,20 +10644,20 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="54"/>
       <c r="E50" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="H50" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I50" s="54" t="s">
         <v>6</v>
@@ -9940,7 +10666,7 @@
         <v>354</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
@@ -9957,10 +10683,10 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>19</v>
@@ -9969,7 +10695,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>1</v>
@@ -9978,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>17</v>
@@ -9987,7 +10713,7 @@
         <v>355</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
@@ -10004,15 +10730,15 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>15</v>
@@ -10021,12 +10747,12 @@
         <v>14</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
@@ -10043,20 +10769,20 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>6</v>
@@ -10082,15 +10808,15 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>23</v>
@@ -10099,7 +10825,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>6</v>
@@ -10125,19 +10851,19 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>1</v>
@@ -10146,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -10168,34 +10894,34 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="J56" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K56" s="29" t="s">
         <v>38</v>
@@ -10215,34 +10941,34 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="G57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="J57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K57" s="29" t="s">
         <v>37</v>
@@ -10262,34 +10988,34 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="G58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="J58" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K58" s="29" t="s">
         <v>36</v>
@@ -10309,27 +11035,27 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="29" t="s">
@@ -10350,24 +11076,24 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>17</v>
@@ -10393,15 +11119,15 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>15</v>
@@ -10410,7 +11136,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -10432,15 +11158,15 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>35</v>
@@ -10449,7 +11175,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>17</v>
@@ -10475,19 +11201,19 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>35</v>
@@ -10496,7 +11222,7 @@
         <v>34</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>10</v>
@@ -10522,20 +11248,20 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>10</v>
@@ -10561,15 +11287,15 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>1</v>
@@ -10578,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -10600,19 +11326,19 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>35</v>
@@ -10621,7 +11347,7 @@
         <v>34</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>6</v>
@@ -10647,20 +11373,20 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -10682,15 +11408,15 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>23</v>
@@ -10699,7 +11425,7 @@
         <v>22</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>10</v>
@@ -10725,15 +11451,15 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>23</v>
@@ -10742,7 +11468,7 @@
         <v>22</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>6</v>
@@ -10768,24 +11494,24 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -10807,15 +11533,15 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>35</v>
@@ -10824,7 +11550,7 @@
         <v>34</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>10</v>
@@ -10850,15 +11576,15 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>1</v>
@@ -10867,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>17</v>
@@ -10893,20 +11619,20 @@
     </row>
     <row r="73" spans="1:15" ht="19.5" thickBot="1">
       <c r="A73" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
       <c r="E73" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F73" s="63"/>
       <c r="G73" s="63"/>
       <c r="H73" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I73" s="63"/>
       <c r="J73" s="63"/>
@@ -10928,19 +11654,19 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74" s="61" t="s">
         <v>15</v>
@@ -10949,7 +11675,7 @@
         <v>14</v>
       </c>
       <c r="H74" s="62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I74" s="61" t="s">
         <v>10</v>
@@ -10958,7 +11684,7 @@
         <v>9</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
@@ -10975,15 +11701,15 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>23</v>
@@ -10992,7 +11718,7 @@
         <v>22</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>17</v>
@@ -11001,7 +11727,7 @@
         <v>355</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
@@ -11018,25 +11744,25 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
@@ -11053,15 +11779,15 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>35</v>
@@ -11070,7 +11796,7 @@
         <v>34</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>6</v>
@@ -11096,19 +11822,19 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>35</v>
@@ -11117,7 +11843,7 @@
         <v>34</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>6</v>
@@ -11143,20 +11869,20 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>6</v>
@@ -11182,15 +11908,15 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>23</v>
@@ -11199,7 +11925,7 @@
         <v>22</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -11221,19 +11947,19 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>23</v>
@@ -11242,7 +11968,7 @@
         <v>22</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>6</v>
@@ -11268,20 +11994,20 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>6</v>
@@ -11307,15 +12033,15 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
@@ -11324,7 +12050,7 @@
         <v>14</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -11346,15 +12072,15 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
@@ -11363,7 +12089,7 @@
         <v>14</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>17</v>
@@ -11389,24 +12115,24 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>10</v>
@@ -11432,15 +12158,15 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>23</v>
@@ -11449,7 +12175,7 @@
         <v>22</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -11471,20 +12197,20 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>17</v>
@@ -11510,10 +12236,10 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>26</v>
@@ -11522,7 +12248,7 @@
         <v>25</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -11531,7 +12257,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>17</v>
@@ -11557,15 +12283,15 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>35</v>
@@ -11574,7 +12300,7 @@
         <v>34</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -11596,24 +12322,24 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>17</v>
@@ -11639,15 +12365,15 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
@@ -11656,7 +12382,7 @@
         <v>22</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>17</v>
@@ -11682,15 +12408,15 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
@@ -11699,7 +12425,7 @@
         <v>22</v>
       </c>
       <c r="H92" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -11721,20 +12447,20 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>10</v>
@@ -11760,19 +12486,19 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
@@ -11781,7 +12507,7 @@
         <v>14</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>10</v>
@@ -11807,15 +12533,15 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>1</v>
@@ -11824,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>17</v>
@@ -11850,20 +12576,20 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -11885,19 +12611,19 @@
     </row>
     <row r="97" spans="1:15" ht="19.5" thickBot="1">
       <c r="A97" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B97" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D97" s="69" t="s">
-        <v>65</v>
+        <v>442</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F97" s="69" t="s">
         <v>35</v>
@@ -11906,7 +12632,7 @@
         <v>34</v>
       </c>
       <c r="H97" s="70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I97" s="69" t="s">
         <v>17</v>
@@ -11932,15 +12658,15 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B98" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="66"/>
       <c r="D98" s="66"/>
       <c r="E98" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F98" s="66" t="s">
         <v>15</v>
@@ -11949,7 +12675,7 @@
         <v>14</v>
       </c>
       <c r="H98" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I98" s="66" t="s">
         <v>6</v>
@@ -11958,7 +12684,7 @@
         <v>354</v>
       </c>
       <c r="K98" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M98" t="str">
         <f t="shared" si="3"/>
@@ -11975,15 +12701,15 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>15</v>
@@ -11992,7 +12718,7 @@
         <v>14</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I99" s="35" t="s">
         <v>17</v>
@@ -12001,7 +12727,7 @@
         <v>355</v>
       </c>
       <c r="K99" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M99" t="str">
         <f t="shared" si="3"/>
@@ -12018,25 +12744,25 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I100" s="35"/>
       <c r="J100" s="35"/>
       <c r="K100" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M100" t="str">
         <f t="shared" si="3"/>
@@ -12053,19 +12779,19 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F101" s="35" t="s">
         <v>23</v>
@@ -12074,7 +12800,7 @@
         <v>22</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I101" s="35" t="s">
         <v>17</v>
@@ -12100,15 +12826,15 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F102" s="35" t="s">
         <v>15</v>
@@ -12117,7 +12843,7 @@
         <v>14</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I102" s="35" t="s">
         <v>10</v>
@@ -12143,20 +12869,20 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I103" s="35"/>
       <c r="J103" s="35"/>
@@ -12178,10 +12904,10 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" s="35" t="s">
         <v>26</v>
@@ -12190,7 +12916,7 @@
         <v>25</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F104" s="35" t="s">
         <v>35</v>
@@ -12199,7 +12925,7 @@
         <v>34</v>
       </c>
       <c r="H104" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I104" s="35" t="s">
         <v>17</v>
@@ -12225,20 +12951,20 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I105" s="35" t="s">
         <v>10</v>
@@ -12264,15 +12990,15 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F106" s="35" t="s">
         <v>15</v>
@@ -12281,7 +13007,7 @@
         <v>14</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I106" s="35"/>
       <c r="J106" s="35"/>
@@ -12303,19 +13029,19 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F107" s="35" t="s">
         <v>35</v>
@@ -12324,7 +13050,7 @@
         <v>34</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I107" s="35" t="s">
         <v>6</v>
@@ -12350,15 +13076,15 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F108" s="35" t="s">
         <v>23</v>
@@ -12367,7 +13093,7 @@
         <v>22</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I108" s="35" t="s">
         <v>6</v>
@@ -12393,15 +13119,15 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F109" s="35" t="s">
         <v>23</v>
@@ -12410,7 +13136,7 @@
         <v>22</v>
       </c>
       <c r="H109" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I109" s="35"/>
       <c r="J109" s="35"/>
@@ -12432,20 +13158,20 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
       <c r="H110" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I110" s="35" t="s">
         <v>6</v>
@@ -12471,19 +13197,19 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F111" s="35" t="s">
         <v>1</v>
@@ -12492,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I111" s="35" t="s">
         <v>10</v>
@@ -12518,15 +13244,15 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F112" s="35" t="s">
         <v>1</v>
@@ -12535,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I112" s="35" t="s">
         <v>6</v>
@@ -12561,20 +13287,20 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
       <c r="H113" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I113" s="35"/>
       <c r="J113" s="35"/>
@@ -12596,19 +13322,19 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E114" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F114" s="35" t="s">
         <v>1</v>
@@ -12617,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I114" s="35" t="s">
         <v>6</v>
@@ -12643,20 +13369,20 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
       <c r="H115" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I115" s="35" t="s">
         <v>10</v>
@@ -12682,15 +13408,15 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F116" s="35" t="s">
         <v>23</v>
@@ -12699,7 +13425,7 @@
         <v>22</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I116" s="35"/>
       <c r="J116" s="35"/>
@@ -12721,19 +13447,19 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E117" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F117" s="35" t="s">
         <v>23</v>
@@ -12742,7 +13468,7 @@
         <v>22</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I117" s="35" t="s">
         <v>10</v>
@@ -12768,20 +13494,20 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I118" s="35" t="s">
         <v>17</v>
@@ -12807,15 +13533,15 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F119" s="35" t="s">
         <v>15</v>
@@ -12824,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I119" s="35"/>
       <c r="J119" s="35"/>
@@ -12846,19 +13572,19 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="E120" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F120" s="35" t="s">
         <v>15</v>
@@ -12867,7 +13593,7 @@
         <v>14</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I120" s="35" t="s">
         <v>10</v>
@@ -12893,20 +13619,20 @@
     </row>
     <row r="121" spans="1:15" ht="19.5" thickBot="1">
       <c r="A121" s="75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C121" s="75"/>
       <c r="D121" s="75"/>
       <c r="E121" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F121" s="75"/>
       <c r="G121" s="75"/>
       <c r="H121" s="77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I121" s="75" t="s">
         <v>17</v>
@@ -12932,15 +13658,15 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C122" s="72"/>
       <c r="D122" s="72"/>
       <c r="E122" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F122" s="72" t="s">
         <v>1</v>
@@ -12949,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I122" s="72" t="s">
         <v>10</v>
@@ -12958,7 +13684,7 @@
         <v>9</v>
       </c>
       <c r="K122" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M122" t="str">
         <f t="shared" si="3"/>
@@ -12975,19 +13701,19 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>96</v>
+        <v>437</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F123" s="40" t="s">
         <v>23</v>
@@ -12996,12 +13722,12 @@
         <v>22</v>
       </c>
       <c r="H123" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I123" s="40"/>
       <c r="J123" s="40"/>
       <c r="K123" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="3"/>
@@ -13018,15 +13744,15 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C124" s="40"/>
       <c r="D124" s="40"/>
       <c r="E124" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F124" s="40" t="s">
         <v>35</v>
@@ -13035,7 +13761,7 @@
         <v>34</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I124" s="40" t="s">
         <v>17</v>
@@ -13044,7 +13770,7 @@
         <v>355</v>
       </c>
       <c r="K124" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M124" t="str">
         <f t="shared" si="3"/>
@@ -13061,20 +13787,20 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C125" s="40"/>
       <c r="D125" s="40"/>
       <c r="E125" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F125" s="40"/>
       <c r="G125" s="40"/>
       <c r="H125" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I125" s="40" t="s">
         <v>17</v>
@@ -13100,19 +13826,19 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F126" s="40" t="s">
         <v>15</v>
@@ -13121,7 +13847,7 @@
         <v>14</v>
       </c>
       <c r="H126" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I126" s="40"/>
       <c r="J126" s="40"/>
@@ -13143,15 +13869,15 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C127" s="40"/>
       <c r="D127" s="40"/>
       <c r="E127" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F127" s="40" t="s">
         <v>1</v>
@@ -13160,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I127" s="40" t="s">
         <v>6</v>
@@ -13186,20 +13912,20 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B128" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C128" s="40"/>
       <c r="D128" s="40"/>
       <c r="E128" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F128" s="40"/>
       <c r="G128" s="40"/>
       <c r="H128" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I128" s="40" t="s">
         <v>6</v>
@@ -13225,15 +13951,15 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" s="40"/>
       <c r="D129" s="40"/>
       <c r="E129" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F129" s="40" t="s">
         <v>1</v>
@@ -13242,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I129" s="40"/>
       <c r="J129" s="40"/>
@@ -13264,19 +13990,19 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F130" s="40" t="s">
         <v>23</v>
@@ -13285,7 +14011,7 @@
         <v>22</v>
       </c>
       <c r="H130" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I130" s="40" t="s">
         <v>10</v>
@@ -13311,20 +14037,20 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C131" s="40"/>
       <c r="D131" s="40"/>
       <c r="E131" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F131" s="40"/>
       <c r="G131" s="40"/>
       <c r="H131" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I131" s="40" t="s">
         <v>6</v>
@@ -13350,15 +14076,15 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B132" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C132" s="40"/>
       <c r="D132" s="40"/>
       <c r="E132" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F132" s="40" t="s">
         <v>35</v>
@@ -13367,7 +14093,7 @@
         <v>34</v>
       </c>
       <c r="H132" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I132" s="40"/>
       <c r="J132" s="40"/>
@@ -13389,15 +14115,15 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B133" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C133" s="40"/>
       <c r="D133" s="40"/>
       <c r="E133" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F133" s="40" t="s">
         <v>35</v>
@@ -13406,7 +14132,7 @@
         <v>34</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I133" s="40" t="s">
         <v>10</v>
@@ -13432,24 +14158,24 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
       <c r="H134" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I134" s="40" t="s">
         <v>6</v>
@@ -13475,15 +14201,15 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B135" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C135" s="40"/>
       <c r="D135" s="40"/>
       <c r="E135" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F135" s="40" t="s">
         <v>15</v>
@@ -13492,7 +14218,7 @@
         <v>14</v>
       </c>
       <c r="H135" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I135" s="40"/>
       <c r="J135" s="40"/>
@@ -13514,15 +14240,15 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C136" s="40"/>
       <c r="D136" s="40"/>
       <c r="E136" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F136" s="40" t="s">
         <v>35</v>
@@ -13531,7 +14257,7 @@
         <v>34</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I136" s="40" t="s">
         <v>17</v>
@@ -13557,10 +14283,10 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>19</v>
@@ -13569,7 +14295,7 @@
         <v>18</v>
       </c>
       <c r="E137" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F137" s="46" t="s">
         <v>35</v>
@@ -13578,7 +14304,7 @@
         <v>34</v>
       </c>
       <c r="H137" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I137" s="40"/>
       <c r="J137" s="40"/>
@@ -13600,15 +14326,15 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C138" s="40"/>
       <c r="D138" s="40"/>
       <c r="E138" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F138" s="40" t="s">
         <v>35</v>
@@ -13617,7 +14343,7 @@
         <v>34</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I138" s="40" t="s">
         <v>17</v>
@@ -13643,20 +14369,20 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B139" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C139" s="40"/>
       <c r="D139" s="40"/>
       <c r="E139" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
       <c r="H139" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I139" s="40" t="s">
         <v>6</v>
@@ -13682,15 +14408,15 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B140" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C140" s="40"/>
       <c r="D140" s="40"/>
       <c r="E140" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F140" s="40" t="s">
         <v>35</v>
@@ -13699,7 +14425,7 @@
         <v>34</v>
       </c>
       <c r="H140" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I140" s="40"/>
       <c r="J140" s="40"/>
@@ -13721,19 +14447,19 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B141" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C141" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="D141" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F141" s="40" t="s">
         <v>15</v>
@@ -13742,7 +14468,7 @@
         <v>14</v>
       </c>
       <c r="H141" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I141" s="40" t="s">
         <v>6</v>
@@ -13768,20 +14494,20 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B142" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" s="40"/>
       <c r="D142" s="40"/>
       <c r="E142" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
       <c r="H142" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I142" s="40" t="s">
         <v>17</v>
@@ -13807,15 +14533,15 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B143" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C143" s="40"/>
       <c r="D143" s="40"/>
       <c r="E143" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F143" s="40" t="s">
         <v>15</v>
@@ -13824,7 +14550,7 @@
         <v>14</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I143" s="40"/>
       <c r="J143" s="40"/>
@@ -13846,19 +14572,19 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B144" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>31</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F144" s="40" t="s">
         <v>35</v>
@@ -13867,7 +14593,7 @@
         <v>34</v>
       </c>
       <c r="H144" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I144" s="40" t="s">
         <v>10</v>
@@ -13893,20 +14619,20 @@
     </row>
     <row r="145" spans="1:15" ht="19.5" thickBot="1">
       <c r="A145" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B145" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C145" s="82"/>
       <c r="D145" s="82"/>
       <c r="E145" s="83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F145" s="82"/>
       <c r="G145" s="82"/>
       <c r="H145" s="84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I145" s="82" t="s">
         <v>6</v>
@@ -13935,12 +14661,12 @@
         <v>4</v>
       </c>
       <c r="B146" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="79"/>
       <c r="D146" s="79"/>
       <c r="E146" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F146" s="79" t="s">
         <v>1</v>
@@ -13949,12 +14675,12 @@
         <v>0</v>
       </c>
       <c r="H146" s="80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I146" s="79"/>
       <c r="J146" s="79"/>
       <c r="K146" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M146" t="str">
         <f t="shared" si="6"/>
@@ -13974,17 +14700,17 @@
         <v>4</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C147" s="30"/>
       <c r="D147" s="30"/>
       <c r="E147" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F147" s="30"/>
       <c r="G147" s="30"/>
       <c r="H147" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I147" s="30" t="s">
         <v>17</v>
@@ -13993,7 +14719,7 @@
         <v>355</v>
       </c>
       <c r="K147" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M147" t="str">
         <f t="shared" si="6"/>
@@ -14013,16 +14739,16 @@
         <v>4</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>42</v>
+        <v>434</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F148" s="30" t="s">
         <v>1</v>
@@ -14031,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>17</v>
@@ -14040,7 +14766,7 @@
         <v>355</v>
       </c>
       <c r="K148" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M148" t="str">
         <f t="shared" si="6"/>
@@ -14063,7 +14789,7 @@
       <c r="C149" s="30"/>
       <c r="D149" s="30"/>
       <c r="E149" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F149" s="30" t="s">
         <v>35</v>
@@ -14072,7 +14798,7 @@
         <v>34</v>
       </c>
       <c r="H149" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
@@ -14100,12 +14826,12 @@
       <c r="C150" s="30"/>
       <c r="D150" s="30"/>
       <c r="E150" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>17</v>
@@ -14137,7 +14863,7 @@
       <c r="C151" s="30"/>
       <c r="D151" s="30"/>
       <c r="E151" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F151" s="30" t="s">
         <v>15</v>
@@ -14146,7 +14872,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I151" s="30" t="s">
         <v>10</v>
@@ -14175,7 +14901,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152" s="30" t="s">
         <v>3</v>
@@ -14184,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F152" s="30" t="s">
         <v>35</v>
@@ -14193,7 +14919,7 @@
         <v>34</v>
       </c>
       <c r="H152" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
@@ -14221,12 +14947,12 @@
       <c r="C153" s="30"/>
       <c r="D153" s="30"/>
       <c r="E153" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F153" s="30"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I153" s="30" t="s">
         <v>6</v>
@@ -14258,7 +14984,7 @@
       <c r="C154" s="30"/>
       <c r="D154" s="30"/>
       <c r="E154" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F154" s="30" t="s">
         <v>35</v>
@@ -14267,7 +14993,7 @@
         <v>34</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I154" s="30" t="s">
         <v>6</v>
@@ -14299,7 +15025,7 @@
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
       <c r="E155" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F155" s="30" t="s">
         <v>15</v>
@@ -14308,7 +15034,7 @@
         <v>14</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
@@ -14333,21 +15059,21 @@
         <v>4</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C156" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F156" s="30"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I156" s="30" t="s">
         <v>6</v>
@@ -14376,12 +15102,12 @@
         <v>4</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C157" s="30"/>
       <c r="D157" s="30"/>
       <c r="E157" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F157" s="30" t="s">
         <v>1</v>
@@ -14390,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I157" s="30" t="s">
         <v>10</v>
@@ -14419,12 +15145,12 @@
         <v>4</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C158" s="30"/>
       <c r="D158" s="30"/>
       <c r="E158" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>23</v>
@@ -14433,7 +15159,7 @@
         <v>22</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
@@ -14458,17 +15184,17 @@
         <v>4</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C159" s="30"/>
       <c r="D159" s="30"/>
       <c r="E159" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F159" s="30"/>
       <c r="G159" s="30"/>
       <c r="H159" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I159" s="30" t="s">
         <v>17</v>
@@ -14497,7 +15223,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" s="30" t="s">
         <v>26</v>
@@ -14506,7 +15232,7 @@
         <v>25</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F160" s="30" t="s">
         <v>35</v>
@@ -14515,7 +15241,7 @@
         <v>34</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I160" s="30" t="s">
         <v>17</v>
@@ -14547,7 +15273,7 @@
       <c r="C161" s="30"/>
       <c r="D161" s="30"/>
       <c r="E161" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F161" s="30" t="s">
         <v>23</v>
@@ -14556,7 +15282,7 @@
         <v>22</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
@@ -14584,7 +15310,7 @@
       <c r="C162" s="30"/>
       <c r="D162" s="30"/>
       <c r="E162" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F162" s="30" t="s">
         <v>35</v>
@@ -14593,7 +15319,7 @@
         <v>34</v>
       </c>
       <c r="H162" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I162" s="30" t="s">
         <v>6</v>
@@ -14622,21 +15348,21 @@
         <v>4</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>18</v>
+        <v>436</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F163" s="30"/>
       <c r="G163" s="30"/>
       <c r="H163" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I163" s="30" t="s">
         <v>17</v>
@@ -14668,7 +15394,7 @@
       <c r="C164" s="30"/>
       <c r="D164" s="30"/>
       <c r="E164" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F164" s="30" t="s">
         <v>15</v>
@@ -14677,7 +15403,7 @@
         <v>14</v>
       </c>
       <c r="H164" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
@@ -14705,12 +15431,12 @@
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
       <c r="E165" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
       <c r="H165" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I165" s="30" t="s">
         <v>6</v>
@@ -14739,16 +15465,16 @@
         <v>4</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F166" s="30" t="s">
         <v>1</v>
@@ -14757,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I166" s="30" t="s">
         <v>10</v>
@@ -14786,12 +15512,12 @@
         <v>4</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="30"/>
       <c r="D167" s="30"/>
       <c r="E167" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F167" s="30" t="s">
         <v>15</v>
@@ -14800,7 +15526,7 @@
         <v>14</v>
       </c>
       <c r="H167" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
@@ -14825,17 +15551,17 @@
         <v>4</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C168" s="30"/>
       <c r="D168" s="30"/>
       <c r="E168" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
       <c r="H168" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I168" s="30" t="s">
         <v>6</v>
@@ -14864,7 +15590,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" s="30" t="s">
         <v>3</v>
@@ -14873,7 +15599,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F169" s="30" t="s">
         <v>1</v>
@@ -14882,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
@@ -14906,12 +15632,12 @@
   <autoFilter ref="A1:J169" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="定期メンテナンス中">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="定期メンテナンス中">
       <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:J1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="例行維護中">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/timeList.xlsx
+++ b/files/timeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutsu\Pictures\BnSNEOtimeList\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988661D-4385-474A-94DC-340A421DEC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5569344D-7D3F-4C40-B4D9-7283BF40C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="16995" windowWidth="18615" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22965" yWindow="18765" windowWidth="18615" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="491">
   <si>
     <t>鬼蛮</t>
   </si>
@@ -1706,6 +1706,34 @@
   </si>
   <si>
     <t>20:32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17:36</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>19:05_?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23:24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豬豬農場 / 鬼都</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>海岸旅館 / 悪鬼都市</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23:37</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2210,7 +2238,21 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2529,10 +2571,10 @@
   <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="97" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="97" bestFit="1" customWidth="1"/>
@@ -2553,7 +2595,7 @@
     <col min="17" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="7" t="s">
         <v>86</v>
@@ -2587,7 +2629,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>82</v>
       </c>
@@ -2619,7 +2661,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>44</v>
       </c>
@@ -2651,7 +2693,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2725,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2757,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
@@ -2747,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
@@ -2779,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>38</v>
       </c>
@@ -2811,7 +2853,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
@@ -2843,7 +2885,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="23" t="s">
         <v>36</v>
       </c>
@@ -2875,7 +2917,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
@@ -2907,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +2981,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
@@ -2971,7 +3013,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -3003,7 +3045,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
@@ -3035,7 +3077,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
@@ -3067,7 +3109,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>24</v>
       </c>
@@ -3099,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
@@ -3131,7 +3173,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3205,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>16</v>
       </c>
@@ -3195,7 +3237,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3269,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
@@ -3259,7 +3301,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>8</v>
       </c>
@@ -3291,7 +3333,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1">
       <c r="A24" s="23" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" thickBot="1">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A25" s="53" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3397,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3429,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -3419,7 +3461,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -3451,7 +3493,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -3483,7 +3525,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -3515,7 +3557,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
@@ -3547,7 +3589,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +3621,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -3643,7 +3685,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -3675,7 +3717,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -3707,7 +3749,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
@@ -3739,7 +3781,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3771,7 +3813,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>28</v>
       </c>
@@ -3803,7 +3845,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="18.75" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
@@ -3835,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3909,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="13.5" customHeight="1">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -3899,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" ht="18.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -3931,7 +3973,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" ht="18.75" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>16</v>
       </c>
@@ -3963,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" ht="18.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4037,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" ht="18.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -4027,7 +4069,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="18.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -4059,7 +4101,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
@@ -4091,7 +4133,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" thickBot="1">
+    <row r="49" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A49" s="60" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4165,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" ht="18.75" customHeight="1">
       <c r="A50" s="29" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4197,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" ht="18.75" customHeight="1">
       <c r="A51" s="29" t="s">
         <v>44</v>
       </c>
@@ -4187,7 +4229,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1">
       <c r="A52" s="29" t="s">
         <v>43</v>
       </c>
@@ -4219,7 +4261,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" ht="18.75" customHeight="1">
       <c r="A53" s="29" t="s">
         <v>41</v>
       </c>
@@ -4251,7 +4293,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" ht="18.75" customHeight="1">
       <c r="A54" s="29" t="s">
         <v>40</v>
       </c>
@@ -4283,7 +4325,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" ht="18.75" customHeight="1">
       <c r="A55" s="29" t="s">
         <v>39</v>
       </c>
@@ -4315,7 +4357,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="18.75" customHeight="1">
       <c r="A56" s="29" t="s">
         <v>38</v>
       </c>
@@ -4365,7 +4407,7 @@
         <v>06:00</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="18.75" customHeight="1">
       <c r="A57" s="29" t="s">
         <v>37</v>
       </c>
@@ -4415,7 +4457,7 @@
         <v>07:00</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" ht="18.75" customHeight="1">
       <c r="A58" s="29" t="s">
         <v>36</v>
       </c>
@@ -4465,7 +4507,7 @@
         <v>08:00</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" ht="18.75" customHeight="1">
       <c r="A59" s="29" t="s">
         <v>33</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>09:00</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="18.75" customHeight="1">
       <c r="A60" s="29" t="s">
         <v>32</v>
       </c>
@@ -4551,7 +4593,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" ht="18.75" customHeight="1">
       <c r="A61" s="29" t="s">
         <v>30</v>
       </c>
@@ -4595,7 +4637,7 @@
         <v>11:00</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" ht="18.75" customHeight="1">
       <c r="A62" s="29" t="s">
         <v>29</v>
       </c>
@@ -4633,7 +4675,7 @@
         <v>12:07</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" ht="18.75" customHeight="1">
       <c r="A63" s="29" t="s">
         <v>28</v>
       </c>
@@ -4677,7 +4719,7 @@
         <v>13:35</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="18.75" customHeight="1">
       <c r="A64" s="29" t="s">
         <v>27</v>
       </c>
@@ -4721,7 +4763,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" ht="18.75" customHeight="1">
       <c r="A65" s="29" t="s">
         <v>24</v>
       </c>
@@ -4759,7 +4801,7 @@
         <v>15:09</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="18.75" customHeight="1">
       <c r="A66" s="29" t="s">
         <v>21</v>
       </c>
@@ -4803,7 +4845,7 @@
         <v>16:34</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" ht="18.75" customHeight="1">
       <c r="A67" s="29" t="s">
         <v>20</v>
       </c>
@@ -4841,7 +4883,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" ht="18.75" customHeight="1">
       <c r="A68" s="29" t="s">
         <v>16</v>
       </c>
@@ -4885,7 +4927,7 @@
         <v>18:06</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" ht="18.75" customHeight="1">
       <c r="A69" s="29" t="s">
         <v>13</v>
       </c>
@@ -4929,7 +4971,7 @@
         <v>19:32</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" ht="18.75" customHeight="1">
       <c r="A70" s="29" t="s">
         <v>12</v>
       </c>
@@ -4967,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" ht="18.75" customHeight="1">
       <c r="A71" s="29" t="s">
         <v>8</v>
       </c>
@@ -5005,7 +5047,7 @@
         <v>21:00</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" ht="18.75" customHeight="1">
       <c r="A72" s="29" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5097,7 @@
         <v>22:25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="16.5" thickBot="1">
+    <row r="73" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A73" s="65" t="s">
         <v>5</v>
       </c>
@@ -5093,7 +5135,7 @@
         <v>23:53</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="18.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>45</v>
       </c>
@@ -5131,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" ht="18.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
@@ -5175,7 +5217,7 @@
         <v>01:01</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" ht="18.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5261,7 @@
         <v>02:26</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" ht="18.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -5257,7 +5299,7 @@
         <v>03:52</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" ht="18.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>40</v>
       </c>
@@ -5295,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" ht="18.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -5345,7 +5387,7 @@
         <v>05:26</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" ht="18.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>38</v>
       </c>
@@ -5383,7 +5425,7 @@
         <v>06:55</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="18.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -5421,7 +5463,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" ht="18.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5513,7 @@
         <v>08:27</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" ht="18.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -5509,7 +5551,7 @@
         <v>09:58</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" ht="18.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
@@ -5547,7 +5589,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" ht="18.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>30</v>
       </c>
@@ -5597,7 +5639,7 @@
         <v>11:33</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" ht="18.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>29</v>
       </c>
@@ -5629,7 +5671,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" ht="18.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>28</v>
       </c>
@@ -5673,7 +5715,7 @@
         <v>13:03</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" ht="18.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>27</v>
       </c>
@@ -5717,7 +5759,7 @@
         <v>14:37</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" ht="18.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>24</v>
       </c>
@@ -5755,7 +5797,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" ht="18.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>21</v>
       </c>
@@ -5799,7 +5841,7 @@
         <v>16:10</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="18.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>20</v>
       </c>
@@ -5843,7 +5885,7 @@
         <v>17:43</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" ht="18.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -5881,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" ht="18.75" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +5967,7 @@
         <v>19:08</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" ht="18.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
@@ -5969,7 +6011,7 @@
         <v>20:35</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" ht="18.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -6001,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" ht="18.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -6051,7 +6093,7 @@
         <v>22:07</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.5" thickBot="1">
+    <row r="97" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A97" s="71" t="s">
         <v>5</v>
       </c>
@@ -6089,7 +6131,7 @@
         <v>23:40</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" ht="18.75" customHeight="1">
       <c r="A98" s="38" t="s">
         <v>45</v>
       </c>
@@ -6121,7 +6163,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" ht="18.75" customHeight="1">
       <c r="A99" s="38" t="s">
         <v>44</v>
       </c>
@@ -6171,7 +6213,7 @@
         <v>01:03</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" ht="18.75" customHeight="1">
       <c r="A100" s="38" t="s">
         <v>43</v>
       </c>
@@ -6215,7 +6257,7 @@
         <v>02:29</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" ht="18.75" customHeight="1">
       <c r="A101" s="38" t="s">
         <v>41</v>
       </c>
@@ -6247,7 +6289,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" ht="18.75" customHeight="1">
       <c r="A102" s="38" t="s">
         <v>40</v>
       </c>
@@ -6297,7 +6339,7 @@
         <v>04:02</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" ht="18.75" customHeight="1">
       <c r="A103" s="38" t="s">
         <v>39</v>
       </c>
@@ -6341,7 +6383,7 @@
         <v>05:33</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" ht="18.75" customHeight="1">
       <c r="A104" s="38" t="s">
         <v>38</v>
       </c>
@@ -6379,7 +6421,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" ht="18.75" customHeight="1">
       <c r="A105" s="38" t="s">
         <v>37</v>
       </c>
@@ -6423,7 +6465,7 @@
         <v>07:01</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" ht="18.75" customHeight="1">
       <c r="A106" s="38" t="s">
         <v>36</v>
       </c>
@@ -6467,7 +6509,7 @@
         <v>08:34</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" ht="18.75" customHeight="1">
       <c r="A107" s="38" t="s">
         <v>33</v>
       </c>
@@ -6477,8 +6519,12 @@
       <c r="C107" s="37"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="35"/>
+      <c r="F107" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="H107" s="35"/>
       <c r="I107" s="37"/>
       <c r="J107" s="35"/>
@@ -6492,14 +6538,14 @@
       </c>
       <c r="O107" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>黑鯰王</v>
       </c>
       <c r="P107" s="97" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" ht="18.75" customHeight="1">
       <c r="A108" s="38" t="s">
         <v>32</v>
       </c>
@@ -6539,7 +6585,7 @@
         <v>10:04</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" ht="18.75" customHeight="1">
       <c r="A109" s="38" t="s">
         <v>30</v>
       </c>
@@ -6589,7 +6635,7 @@
         <v>11:30</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" ht="18.75" customHeight="1">
       <c r="A110" s="38" t="s">
         <v>29</v>
       </c>
@@ -6621,7 +6667,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="18.75" customHeight="1">
       <c r="A111" s="38" t="s">
         <v>28</v>
       </c>
@@ -6665,7 +6711,7 @@
         <v>13:00</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" ht="18.75" customHeight="1">
       <c r="A112" s="38" t="s">
         <v>27</v>
       </c>
@@ -6709,7 +6755,7 @@
         <v>14:33</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" ht="18.75" customHeight="1">
       <c r="A113" s="38" t="s">
         <v>24</v>
       </c>
@@ -6747,7 +6793,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" ht="18.75" customHeight="1">
       <c r="A114" s="38" t="s">
         <v>21</v>
       </c>
@@ -6791,7 +6837,7 @@
         <v>16:02</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" ht="18.75" customHeight="1">
       <c r="A115" s="38" t="s">
         <v>20</v>
       </c>
@@ -6801,12 +6847,24 @@
       <c r="C115" s="37"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
+      <c r="F115" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="J115" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K115" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L115" s="38" t="s">
         <v>20</v>
       </c>
@@ -6816,14 +6874,14 @@
       </c>
       <c r="O115" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>17:36</v>
       </c>
       <c r="P115" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+        <v>17:36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="18.75" customHeight="1">
       <c r="A116" s="38" t="s">
         <v>16</v>
       </c>
@@ -6855,7 +6913,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" ht="18.75" customHeight="1">
       <c r="A117" s="38" t="s">
         <v>13</v>
       </c>
@@ -6871,12 +6929,24 @@
       <c r="E117" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="F117" s="37"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
+      <c r="F117" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="J117" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L117" s="38" t="s">
         <v>13</v>
       </c>
@@ -6886,14 +6956,14 @@
       </c>
       <c r="O117" s="97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>19:05_?</v>
       </c>
       <c r="P117" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+        <v>19:04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="18.75" customHeight="1">
       <c r="A118" s="38" t="s">
         <v>12</v>
       </c>
@@ -6931,7 +7001,7 @@
         <v>20:32</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" ht="18.75" customHeight="1">
       <c r="A119" s="38" t="s">
         <v>8</v>
       </c>
@@ -6963,7 +7033,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" ht="18.75" customHeight="1">
       <c r="A120" s="38" t="s">
         <v>7</v>
       </c>
@@ -6976,9 +7046,15 @@
       <c r="F120" s="37"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="35"/>
+      <c r="I120" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="J120" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K120" s="35" t="s">
+        <v>354</v>
+      </c>
       <c r="L120" s="38" t="s">
         <v>7</v>
       </c>
@@ -6992,31 +7068,43 @@
       </c>
       <c r="P120" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="16.5" thickBot="1">
+        <v>22:07</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A121" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C121" s="77"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
+      <c r="C121" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="D121" s="75" t="s">
+        <v>488</v>
+      </c>
+      <c r="E121" s="75" t="s">
+        <v>489</v>
+      </c>
       <c r="F121" s="77"/>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
+      <c r="I121" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="J121" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K121" s="75" t="s">
+        <v>354</v>
+      </c>
       <c r="L121" s="78" t="s">
         <v>5</v>
       </c>
       <c r="N121" s="97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>23:24</v>
       </c>
       <c r="O121" s="97" t="str">
         <f t="shared" si="4"/>
@@ -7024,10 +7112,10 @@
       </c>
       <c r="P121" s="97" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+        <v>23:37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="18.75" customHeight="1">
       <c r="A122" s="43" t="s">
         <v>45</v>
       </c>
@@ -7059,7 +7147,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" ht="18.75" customHeight="1">
       <c r="A123" s="43" t="s">
         <v>44</v>
       </c>
@@ -7091,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" ht="18.75" customHeight="1">
       <c r="A124" s="43" t="s">
         <v>43</v>
       </c>
@@ -7123,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" ht="18.75" customHeight="1">
       <c r="A125" s="43" t="s">
         <v>41</v>
       </c>
@@ -7155,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" ht="18.75" customHeight="1">
       <c r="A126" s="43" t="s">
         <v>40</v>
       </c>
@@ -7187,7 +7275,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" ht="18.75" customHeight="1">
       <c r="A127" s="43" t="s">
         <v>39</v>
       </c>
@@ -7219,7 +7307,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" ht="18.75" customHeight="1">
       <c r="A128" s="43" t="s">
         <v>38</v>
       </c>
@@ -7251,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" ht="18.75" customHeight="1">
       <c r="A129" s="43" t="s">
         <v>37</v>
       </c>
@@ -7283,7 +7371,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" ht="18.75" customHeight="1">
       <c r="A130" s="43" t="s">
         <v>36</v>
       </c>
@@ -7315,7 +7403,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" ht="18.75" customHeight="1">
       <c r="A131" s="43" t="s">
         <v>33</v>
       </c>
@@ -7347,7 +7435,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" ht="18.75" customHeight="1">
       <c r="A132" s="43" t="s">
         <v>32</v>
       </c>
@@ -7379,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" ht="18.75" customHeight="1">
       <c r="A133" s="43" t="s">
         <v>30</v>
       </c>
@@ -7411,7 +7499,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" ht="18.75" customHeight="1">
       <c r="A134" s="43" t="s">
         <v>29</v>
       </c>
@@ -7443,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" ht="18.75" customHeight="1">
       <c r="A135" s="43" t="s">
         <v>28</v>
       </c>
@@ -7475,7 +7563,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" ht="18.75" customHeight="1">
       <c r="A136" s="43" t="s">
         <v>27</v>
       </c>
@@ -7507,7 +7595,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" ht="18.75" customHeight="1">
       <c r="A137" s="43" t="s">
         <v>24</v>
       </c>
@@ -7539,7 +7627,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" ht="18.75" customHeight="1">
       <c r="A138" s="43" t="s">
         <v>21</v>
       </c>
@@ -7571,7 +7659,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" ht="18.75" customHeight="1">
       <c r="A139" s="43" t="s">
         <v>20</v>
       </c>
@@ -7603,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" ht="18.75" customHeight="1">
       <c r="A140" s="43" t="s">
         <v>16</v>
       </c>
@@ -7635,7 +7723,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" ht="18.75" customHeight="1">
       <c r="A141" s="43" t="s">
         <v>13</v>
       </c>
@@ -7667,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" ht="18.75" customHeight="1">
       <c r="A142" s="43" t="s">
         <v>12</v>
       </c>
@@ -7699,7 +7787,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" ht="18.75" customHeight="1">
       <c r="A143" s="43" t="s">
         <v>8</v>
       </c>
@@ -7731,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" ht="18.75" customHeight="1">
       <c r="A144" s="43" t="s">
         <v>7</v>
       </c>
@@ -7763,7 +7851,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="16.5" thickBot="1">
+    <row r="145" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
       <c r="A145" s="85" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7883,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" ht="18.75" customHeight="1">
       <c r="A146" s="33" t="s">
         <v>45</v>
       </c>
@@ -7827,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" ht="18.75" customHeight="1">
       <c r="A147" s="33" t="s">
         <v>44</v>
       </c>
@@ -7859,7 +7947,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" ht="18.75" customHeight="1">
       <c r="A148" s="33" t="s">
         <v>43</v>
       </c>
@@ -7891,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" ht="18.75" customHeight="1">
       <c r="A149" s="33" t="s">
         <v>41</v>
       </c>
@@ -7923,7 +8011,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" ht="18.75" customHeight="1">
       <c r="A150" s="33" t="s">
         <v>40</v>
       </c>
@@ -7955,7 +8043,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" ht="18.75" customHeight="1">
       <c r="A151" s="33" t="s">
         <v>39</v>
       </c>
@@ -7987,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" ht="18.75" customHeight="1">
       <c r="A152" s="33" t="s">
         <v>38</v>
       </c>
@@ -8019,7 +8107,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" ht="18.75" customHeight="1">
       <c r="A153" s="33" t="s">
         <v>37</v>
       </c>
@@ -8051,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" ht="18.75" customHeight="1">
       <c r="A154" s="33" t="s">
         <v>36</v>
       </c>
@@ -8083,7 +8171,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" ht="18.75" customHeight="1">
       <c r="A155" s="33" t="s">
         <v>33</v>
       </c>
@@ -8115,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" ht="18.75" customHeight="1">
       <c r="A156" s="33" t="s">
         <v>32</v>
       </c>
@@ -8147,7 +8235,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" ht="18.75" customHeight="1">
       <c r="A157" s="33" t="s">
         <v>30</v>
       </c>
@@ -8179,7 +8267,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" ht="18.75" customHeight="1">
       <c r="A158" s="33" t="s">
         <v>29</v>
       </c>
@@ -8211,7 +8299,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" ht="18.75" customHeight="1">
       <c r="A159" s="33" t="s">
         <v>28</v>
       </c>
@@ -8243,7 +8331,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" ht="18.75" customHeight="1">
       <c r="A160" s="33" t="s">
         <v>27</v>
       </c>
@@ -8275,7 +8363,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" ht="18.75" customHeight="1">
       <c r="A161" s="33" t="s">
         <v>24</v>
       </c>
@@ -8307,7 +8395,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" ht="18.75" customHeight="1">
       <c r="A162" s="33" t="s">
         <v>21</v>
       </c>
@@ -8339,7 +8427,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" ht="18.75" customHeight="1">
       <c r="A163" s="33" t="s">
         <v>20</v>
       </c>
@@ -8371,7 +8459,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" ht="18.75" customHeight="1">
       <c r="A164" s="33" t="s">
         <v>16</v>
       </c>
@@ -8403,7 +8491,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" ht="18.75" customHeight="1">
       <c r="A165" s="33" t="s">
         <v>13</v>
       </c>
@@ -8435,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" ht="18.75" customHeight="1">
       <c r="A166" s="33" t="s">
         <v>12</v>
       </c>
@@ -8467,7 +8555,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" ht="18.75" customHeight="1">
       <c r="A167" s="33" t="s">
         <v>8</v>
       </c>
@@ -8499,7 +8587,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" ht="18.75" customHeight="1">
       <c r="A168" s="33" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" ht="18.75" customHeight="1">
       <c r="A169" s="33" t="s">
         <v>5</v>
       </c>
@@ -8565,14 +8653,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G1048576 J1:J1048576 D1:D1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="例行維護中">
+  <conditionalFormatting sqref="G1:G106 J1:J1048576 D1:D1048576 G108:G1048576">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 K1:K1048576 E1:E1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="定期メンテナンス中">
+      <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="例行維護中">
+      <formula>NOT(ISERROR(SEARCH("例行維護中",F107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="定期メンテナンス中">
-      <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",G107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8584,8 +8682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15632,12 +15730,12 @@
   <autoFilter ref="A1:J169" xr:uid="{F2D04C18-0E97-4E28-9FC2-690F31DD96B0}"/>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="定期メンテナンス中">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="定期メンテナンス中">
       <formula>NOT(ISERROR(SEARCH("定期メンテナンス中",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:J1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="例行維護中">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="例行維護中">
       <formula>NOT(ISERROR(SEARCH("例行維護中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
